--- a/010-外部設計/013-2-画面遷移図.xlsx
+++ b/010-外部設計/013-2-画面遷移図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\システム開発演習\03_システム開発演習\010-外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Disstrg\個人\戦略本部\tk.okamoto\デスクトップ\研修用保存先\システム開発演習\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E8515-51AC-4CA7-83EB-0705A63256C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D7461C-42BB-4736-BF53-9996BD99C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -221,16 +220,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>山田　太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>山田 太郎</t>
     <rPh sb="0" eb="2">
       <t>ヤマダ</t>
@@ -245,19 +234,59 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>山田 太郎</t>
-    <rPh sb="3" eb="5">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2017BAH000X011-002</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>山田 太郎</t>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>岡本 毅斗</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タケシト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>岡本 毅斗</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タケシト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面遷移図(ショッピング機能)</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>穴埋め</t>
+    <rPh sb="0" eb="2">
+      <t>アナウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>htmlのファイル名をjspに変更</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1383,7 +1412,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>main.html</a:t>
+            <a:t>main.jsp</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1481,7 +1510,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>searchResult.html</a:t>
+            <a:t>search_result.jsp</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1549,6 +1578,16 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>商品詳細表示画面</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -1556,6 +1595,21 @@
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>item_detail.jsp</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1645,7 +1699,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>cart.html</a:t>
+            <a:t>cart.jsp</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1811,7 +1865,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>login.html</a:t>
+            <a:t>login.jsp</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1879,13 +1933,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員情報変更画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>update_user.jsp</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1945,6 +2024,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>退会確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>withdraw_confirm.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2011,6 +2122,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>退会完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>withdraw_commit.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2026,7 +2169,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
@@ -2051,8 +2194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3535680" y="4274820"/>
-          <a:ext cx="1470660" cy="403860"/>
+          <a:off x="3542489" y="4307246"/>
+          <a:ext cx="1560155" cy="404346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2077,6 +2220,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員情報変更確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>update_user_confirm.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2143,6 +2318,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員情報変更完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>update_user_commit.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2209,6 +2416,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入履歴一覧画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchase_history.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2249,8 +2488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5341620" y="4968240"/>
-          <a:ext cx="1767840" cy="403860"/>
+          <a:off x="5445544" y="5001638"/>
+          <a:ext cx="1799941" cy="404347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2275,13 +2514,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入履歴キャンセル確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchase_cancel_confirm.jsp</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2341,13 +2605,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入履歴キャンセル完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchase_cancel_commit.jsp</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2407,6 +2696,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員登録情報入力画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>register_user.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2473,6 +2794,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員登録情報確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>register_user_confirm.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2539,13 +2892,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>会員登録完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>register_user_commit.jsp</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4013,6 +4391,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchase_confirm.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -4079,6 +4489,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>購入完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>purchase_commit.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -4675,6 +5117,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>カートからの削除確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>remove_from_cart_confirm.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -4690,13 +5164,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>49619</xdr:colOff>
+      <xdr:colOff>33405</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>6510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>115642</xdr:colOff>
+      <xdr:colOff>178339</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>108344</xdr:rowOff>
     </xdr:to>
@@ -4715,8 +5189,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7612912" y="1969989"/>
-          <a:ext cx="1724702" cy="406634"/>
+          <a:off x="7685831" y="1992574"/>
+          <a:ext cx="1822955" cy="409876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4741,6 +5215,38 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>カートからの削除完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>remove_from_cart_commit.jsp</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -8780,11 +9286,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -8817,11 +9323,13 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AL49" sqref="AL49:AY50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="4"/>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1">
@@ -11285,7 +11793,7 @@
       <c r="AJ47" s="42"/>
       <c r="AK47" s="42"/>
       <c r="AL47" s="53">
-        <v>42887</v>
+        <v>45539</v>
       </c>
       <c r="AM47" s="53"/>
       <c r="AN47" s="53"/>
@@ -11397,7 +11905,7 @@
       <c r="AJ49" s="55"/>
       <c r="AK49" s="56"/>
       <c r="AL49" s="60" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AM49" s="61"/>
       <c r="AN49" s="61"/>
@@ -11607,12 +12115,12 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL23" sqref="BL23"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36:T36"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="16"/>
+    <col min="1" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
@@ -11725,7 +12233,7 @@
       <c r="AY2" s="72"/>
       <c r="AZ2" s="73"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
       <c r="A4" s="76" t="s">
         <v>11</v>
@@ -11803,7 +12311,7 @@
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="G5" s="79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="79"/>
       <c r="I5" s="79"/>
@@ -11861,15 +12369,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>45539</v>
+      </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
+      <c r="G6" s="66" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="K6" s="66" t="s">
+        <v>32</v>
+      </c>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
       <c r="N6" s="66"/>
@@ -11879,7 +12393,9 @@
       <c r="R6" s="66"/>
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
+      <c r="U6" s="66" t="s">
+        <v>33</v>
+      </c>
       <c r="V6" s="66"/>
       <c r="W6" s="66"/>
       <c r="X6" s="66"/>
@@ -11918,15 +12434,24 @@
         <v>3</v>
       </c>
       <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="67">
+        <f>C6</f>
+        <v>45539</v>
+      </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
+      <c r="G7" s="66" t="str">
+        <f>G6</f>
+        <v>岡本 毅斗</v>
+      </c>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
+      <c r="K7" s="66" t="str">
+        <f>K6</f>
+        <v>画面遷移図(ショッピング機能)</v>
+      </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
       <c r="N7" s="66"/>
@@ -11936,7 +12461,9 @@
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="66" t="s">
+        <v>34</v>
+      </c>
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
@@ -14424,15 +14951,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AS21" sqref="AS21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -14464,7 +14991,7 @@
       <c r="V1" s="99"/>
       <c r="W1" s="99"/>
       <c r="X1" s="100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="100"/>
       <c r="Z1" s="100"/>
@@ -14482,7 +15009,7 @@
       <c r="AJ1" s="99"/>
       <c r="AK1" s="99"/>
       <c r="AL1" s="101">
-        <v>42887</v>
+        <v>45539</v>
       </c>
       <c r="AM1" s="101"/>
       <c r="AN1" s="101"/>
@@ -14547,7 +15074,7 @@
       <c r="AJ2" s="102"/>
       <c r="AK2" s="102"/>
       <c r="AL2" s="104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM2" s="104"/>
       <c r="AN2" s="104"/>
@@ -14563,7 +15090,7 @@
       <c r="AX2" s="97"/>
       <c r="AY2" s="98"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
       <c r="A4" s="81" t="s">
         <v>17</v>
@@ -14578,7 +15105,7 @@
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
     </row>
-    <row r="5" spans="1:52" ht="11.25" thickBot="1">
+    <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
@@ -17000,11 +17527,11 @@
       <selection activeCell="X45" sqref="X45:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -17036,7 +17563,7 @@
       <c r="V1" s="99"/>
       <c r="W1" s="99"/>
       <c r="X1" s="100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="100"/>
       <c r="Z1" s="100"/>
@@ -17119,7 +17646,7 @@
       <c r="AJ2" s="102"/>
       <c r="AK2" s="102"/>
       <c r="AL2" s="104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AM2" s="104"/>
       <c r="AN2" s="104"/>
@@ -17135,7 +17662,7 @@
       <c r="AX2" s="97"/>
       <c r="AY2" s="98"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
       <c r="A4" s="81" t="s">
         <v>17</v>
@@ -17150,7 +17677,7 @@
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
     </row>
-    <row r="5" spans="1:52" ht="11.25" thickBot="1">
+    <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>

--- a/010-外部設計/013-2-画面遷移図.xlsx
+++ b/010-外部設計/013-2-画面遷移図.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Disstrg\個人\戦略本部\tk.okamoto\デスクトップ\研修用保存先\システム開発演習\システム開発演習\010-外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D7461C-42BB-4736-BF53-9996BD99C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525D970-9CCA-4001-A5D1-FF90BFDEA36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -275,16 +275,6 @@
     <t>穴埋め</t>
     <rPh sb="0" eb="2">
       <t>アナウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>htmlのファイル名をjspに変更</t>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -12115,12 +12105,14 @@
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL23" sqref="BL23"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:F6"/>
+      <selection pane="bottomLeft" sqref="A1:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="16"/>
+    <col min="1" max="2" width="2.6640625" style="16"/>
+    <col min="3" max="6" width="2.88671875" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
@@ -12370,7 +12362,7 @@
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
@@ -12434,24 +12426,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="66"/>
-      <c r="C7" s="67">
-        <f>C6</f>
-        <v>45539</v>
-      </c>
+      <c r="C7" s="67"/>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="66" t="str">
-        <f>G6</f>
-        <v>岡本 毅斗</v>
-      </c>
+      <c r="G7" s="66"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
-      <c r="K7" s="66" t="str">
-        <f>K6</f>
-        <v>画面遷移図(ショッピング機能)</v>
-      </c>
+      <c r="K7" s="66"/>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
       <c r="N7" s="66"/>
@@ -12461,9 +12444,7 @@
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="66" t="s">
-        <v>34</v>
-      </c>
+      <c r="U7" s="66"/>
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
@@ -14952,7 +14933,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AS21" sqref="AS21"/>
+      <selection activeCell="A4" sqref="A4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>

--- a/010-外部設計/013-2-画面遷移図.xlsx
+++ b/010-外部設計/013-2-画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA81FAA-FB4A-44B4-8EBE-EA9170C9EC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57A0DA-459D-4C18-8A51-3C68402F5887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,53 +1056,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1140,8 +1098,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1164,27 +1185,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1482,7 +1482,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>main.jsp</a:t>
+            <a:t>main</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1580,7 +1580,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>search_result.jsp</a:t>
+            <a:t>searchResult</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1678,7 +1678,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>item_detail.jsp</a:t>
+            <a:t>itemDetail</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1769,7 +1769,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>cart.jsp</a:t>
+            <a:t>cart</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -1935,7 +1935,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>login.jsp</a:t>
+            <a:t>login</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2033,7 +2033,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>update_user.jsp</a:t>
+            <a:t>updateUser</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2124,7 +2124,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>withdraw_confirm.jsp</a:t>
+            <a:t>withdrawConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2222,7 +2222,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>withdraw_commit.jsp</a:t>
+            <a:t>withdrawCommit</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2320,7 +2320,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>update_user_confirm.jsp</a:t>
+            <a:t>updateUserConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2418,7 +2418,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>update_user_commit.jsp</a:t>
+            <a:t>updateUserCommit</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2516,7 +2516,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>purchase_history.jsp</a:t>
+            <a:t>purchaseHistory</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2614,7 +2614,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>purchase_cancel_confirm.jsp</a:t>
+            <a:t>purchaseCancelConfirm</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2705,7 +2705,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>purchase_cancel_commit.jsp</a:t>
+            <a:t>purchaseCancelCommit</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2796,7 +2796,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>register_user.jsp</a:t>
+            <a:t>registerUser</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2894,7 +2894,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>register_user_confirm.jsp</a:t>
+            <a:t>registerUserConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2992,7 +2992,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>register_user_commit.jsp</a:t>
+            <a:t>registerUserCommit</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4491,7 +4491,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>purchase_confirm.jsp</a:t>
+            <a:t>purchaseConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -4589,7 +4589,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>purchase_commit.jsp</a:t>
+            <a:t>purchaseCommit</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5217,7 +5217,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>remove_from_cart_confirm.jsp</a:t>
+            <a:t>removeFromCartConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5315,7 +5315,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>remove_from_cart_commit.jsp</a:t>
+            <a:t>removeFromCartCommit</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5787,7 +5787,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>modify_from_cart_confirm.jsp</a:t>
+            <a:t>modifyFromCartConfirm</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5885,7 +5885,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>modify_from_cart_commit.jsp</a:t>
+            <a:t>modifyFromCartCommit</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -6037,7 +6037,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>modify_from_cart_input.jsp</a:t>
+            <a:t>modifyFromCartInput</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -12542,25 +12542,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="51" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -12576,49 +12576,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="53" t="s">
+      <c r="AF3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="54" t="s">
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -12634,26 +12634,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -13259,44 +13259,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="57"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="70"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -13315,42 +13315,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="60"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="73"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -13369,42 +13369,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="60"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="73"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -13423,42 +13423,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="60"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="73"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -13477,42 +13477,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="60"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="73"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -13531,42 +13531,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="60"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="72"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="72"/>
+      <c r="AL21" s="72"/>
+      <c r="AM21" s="72"/>
+      <c r="AN21" s="72"/>
+      <c r="AO21" s="72"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="72"/>
+      <c r="AR21" s="73"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -13585,42 +13585,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="60"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="72"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="73"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -13639,42 +13639,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="60"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="72"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="72"/>
+      <c r="AO23" s="72"/>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="73"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -13693,42 +13693,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="60"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="72"/>
+      <c r="AN24" s="72"/>
+      <c r="AO24" s="72"/>
+      <c r="AP24" s="72"/>
+      <c r="AQ24" s="72"/>
+      <c r="AR24" s="73"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -13747,42 +13747,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="60"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="73"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -13801,42 +13801,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="60"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="72"/>
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="72"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="73"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -13855,42 +13855,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="60"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="72"/>
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="73"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -13909,42 +13909,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="60"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="72"/>
+      <c r="AN28" s="72"/>
+      <c r="AO28" s="72"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="73"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -13963,42 +13963,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="63"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="75"/>
+      <c r="AQ29" s="75"/>
+      <c r="AR29" s="76"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -14770,30 +14770,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="53" t="s">
+      <c r="AF45" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="53"/>
-      <c r="AK45" s="53"/>
-      <c r="AL45" s="54" t="s">
+      <c r="AG45" s="50"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="50"/>
+      <c r="AL45" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="54"/>
-      <c r="AT45" s="54"/>
-      <c r="AU45" s="54"/>
-      <c r="AV45" s="54"/>
-      <c r="AW45" s="54"/>
-      <c r="AX45" s="54"/>
-      <c r="AY45" s="54"/>
+      <c r="AM45" s="63"/>
+      <c r="AN45" s="63"/>
+      <c r="AO45" s="63"/>
+      <c r="AP45" s="63"/>
+      <c r="AQ45" s="63"/>
+      <c r="AR45" s="63"/>
+      <c r="AS45" s="63"/>
+      <c r="AT45" s="63"/>
+      <c r="AU45" s="63"/>
+      <c r="AV45" s="63"/>
+      <c r="AW45" s="63"/>
+      <c r="AX45" s="63"/>
+      <c r="AY45" s="63"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -14828,26 +14828,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="53"/>
-      <c r="AL46" s="54"/>
-      <c r="AM46" s="54"/>
-      <c r="AN46" s="54"/>
-      <c r="AO46" s="54"/>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="54"/>
-      <c r="AR46" s="54"/>
-      <c r="AS46" s="54"/>
-      <c r="AT46" s="54"/>
-      <c r="AU46" s="54"/>
-      <c r="AV46" s="54"/>
-      <c r="AW46" s="54"/>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="50"/>
+      <c r="AL46" s="63"/>
+      <c r="AM46" s="63"/>
+      <c r="AN46" s="63"/>
+      <c r="AO46" s="63"/>
+      <c r="AP46" s="63"/>
+      <c r="AQ46" s="63"/>
+      <c r="AR46" s="63"/>
+      <c r="AS46" s="63"/>
+      <c r="AT46" s="63"/>
+      <c r="AU46" s="63"/>
+      <c r="AV46" s="63"/>
+      <c r="AW46" s="63"/>
+      <c r="AX46" s="63"/>
+      <c r="AY46" s="63"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -14882,30 +14882,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="53" t="s">
+      <c r="AF47" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="64">
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="50"/>
+      <c r="AI47" s="50"/>
+      <c r="AJ47" s="50"/>
+      <c r="AK47" s="50"/>
+      <c r="AL47" s="49">
         <v>45539</v>
       </c>
-      <c r="AM47" s="64"/>
-      <c r="AN47" s="64"/>
-      <c r="AO47" s="64"/>
-      <c r="AP47" s="64"/>
-      <c r="AQ47" s="64"/>
-      <c r="AR47" s="64"/>
-      <c r="AS47" s="64"/>
-      <c r="AT47" s="64"/>
-      <c r="AU47" s="64"/>
-      <c r="AV47" s="64"/>
-      <c r="AW47" s="64"/>
-      <c r="AX47" s="64"/>
-      <c r="AY47" s="64"/>
+      <c r="AM47" s="49"/>
+      <c r="AN47" s="49"/>
+      <c r="AO47" s="49"/>
+      <c r="AP47" s="49"/>
+      <c r="AQ47" s="49"/>
+      <c r="AR47" s="49"/>
+      <c r="AS47" s="49"/>
+      <c r="AT47" s="49"/>
+      <c r="AU47" s="49"/>
+      <c r="AV47" s="49"/>
+      <c r="AW47" s="49"/>
+      <c r="AX47" s="49"/>
+      <c r="AY47" s="49"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -14940,26 +14940,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="53"/>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="64"/>
-      <c r="AM48" s="64"/>
-      <c r="AN48" s="64"/>
-      <c r="AO48" s="64"/>
-      <c r="AP48" s="64"/>
-      <c r="AQ48" s="64"/>
-      <c r="AR48" s="64"/>
-      <c r="AS48" s="64"/>
-      <c r="AT48" s="64"/>
-      <c r="AU48" s="64"/>
-      <c r="AV48" s="64"/>
-      <c r="AW48" s="64"/>
-      <c r="AX48" s="64"/>
-      <c r="AY48" s="64"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
+      <c r="AP48" s="49"/>
+      <c r="AQ48" s="49"/>
+      <c r="AR48" s="49"/>
+      <c r="AS48" s="49"/>
+      <c r="AT48" s="49"/>
+      <c r="AU48" s="49"/>
+      <c r="AV48" s="49"/>
+      <c r="AW48" s="49"/>
+      <c r="AX48" s="49"/>
+      <c r="AY48" s="49"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -14994,30 +14994,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="65" t="s">
+      <c r="AF49" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="66"/>
-      <c r="AH49" s="66"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="66"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="71" t="s">
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="53"/>
+      <c r="AL49" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AM49" s="72"/>
-      <c r="AN49" s="72"/>
-      <c r="AO49" s="72"/>
-      <c r="AP49" s="72"/>
-      <c r="AQ49" s="72"/>
-      <c r="AR49" s="72"/>
-      <c r="AS49" s="72"/>
-      <c r="AT49" s="72"/>
-      <c r="AU49" s="72"/>
-      <c r="AV49" s="72"/>
-      <c r="AW49" s="72"/>
-      <c r="AX49" s="72"/>
-      <c r="AY49" s="73"/>
+      <c r="AM49" s="58"/>
+      <c r="AN49" s="58"/>
+      <c r="AO49" s="58"/>
+      <c r="AP49" s="58"/>
+      <c r="AQ49" s="58"/>
+      <c r="AR49" s="58"/>
+      <c r="AS49" s="58"/>
+      <c r="AT49" s="58"/>
+      <c r="AU49" s="58"/>
+      <c r="AV49" s="58"/>
+      <c r="AW49" s="58"/>
+      <c r="AX49" s="58"/>
+      <c r="AY49" s="59"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -15052,26 +15052,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="68"/>
-      <c r="AG50" s="69"/>
-      <c r="AH50" s="69"/>
-      <c r="AI50" s="69"/>
-      <c r="AJ50" s="69"/>
-      <c r="AK50" s="70"/>
-      <c r="AL50" s="74"/>
-      <c r="AM50" s="75"/>
-      <c r="AN50" s="75"/>
-      <c r="AO50" s="75"/>
-      <c r="AP50" s="75"/>
-      <c r="AQ50" s="75"/>
-      <c r="AR50" s="75"/>
-      <c r="AS50" s="75"/>
-      <c r="AT50" s="75"/>
-      <c r="AU50" s="75"/>
-      <c r="AV50" s="75"/>
-      <c r="AW50" s="75"/>
-      <c r="AX50" s="75"/>
-      <c r="AY50" s="76"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="55"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="60"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AQ50" s="61"/>
+      <c r="AR50" s="61"/>
+      <c r="AS50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="61"/>
+      <c r="AV50" s="61"/>
+      <c r="AW50" s="61"/>
+      <c r="AX50" s="61"/>
+      <c r="AY50" s="62"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -15184,17 +15184,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15224,244 +15224,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="90"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="84"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="92"/>
+      <c r="AR2" s="92"/>
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="93"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="91" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="91" t="s">
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="91" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="93"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="81"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="94">
+      <c r="A5" s="82">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95">
+      <c r="B5" s="82"/>
+      <c r="C5" s="83">
         <v>42887</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="94" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94" t="s">
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="94"/>
-      <c r="AZ5" s="94"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="82"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="77">
@@ -15529,134 +15529,134 @@
       <c r="AZ6" s="77"/>
     </row>
     <row r="7" spans="1:52" s="39" customFormat="1" ht="12">
-      <c r="A7" s="87">
+      <c r="A7" s="84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="90">
+      <c r="B7" s="84"/>
+      <c r="C7" s="87">
         <v>45546</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="87" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87" t="s">
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87" t="s">
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="87"/>
-      <c r="AX7" s="87"/>
-      <c r="AY7" s="87"/>
-      <c r="AZ7" s="87"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
     </row>
     <row r="8" spans="1:52" s="47" customFormat="1" ht="12">
-      <c r="A8" s="88">
+      <c r="A8" s="85">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89">
+      <c r="B8" s="85"/>
+      <c r="C8" s="86">
         <v>45547</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="88" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88" t="s">
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88" t="s">
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
     </row>
     <row r="9" spans="1:52" ht="12">
       <c r="A9" s="77">
@@ -17768,232 +17768,88 @@
       <c r="AZ45" s="77"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="85">
+      <c r="A46" s="94">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="85"/>
-      <c r="X46" s="85"/>
-      <c r="Y46" s="85"/>
-      <c r="Z46" s="85"/>
-      <c r="AA46" s="85"/>
-      <c r="AB46" s="85"/>
-      <c r="AC46" s="85"/>
-      <c r="AD46" s="85"/>
-      <c r="AE46" s="85"/>
-      <c r="AF46" s="85"/>
-      <c r="AG46" s="85"/>
-      <c r="AH46" s="85"/>
-      <c r="AI46" s="85"/>
-      <c r="AJ46" s="85"/>
-      <c r="AK46" s="85"/>
-      <c r="AL46" s="85"/>
-      <c r="AM46" s="85"/>
-      <c r="AN46" s="85"/>
-      <c r="AO46" s="85"/>
-      <c r="AP46" s="85"/>
-      <c r="AQ46" s="85"/>
-      <c r="AR46" s="85"/>
-      <c r="AS46" s="85"/>
-      <c r="AT46" s="85"/>
-      <c r="AU46" s="85"/>
-      <c r="AV46" s="85"/>
-      <c r="AW46" s="85"/>
-      <c r="AX46" s="85"/>
-      <c r="AY46" s="85"/>
-      <c r="AZ46" s="85"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94"/>
+      <c r="Y46" s="94"/>
+      <c r="Z46" s="94"/>
+      <c r="AA46" s="94"/>
+      <c r="AB46" s="94"/>
+      <c r="AC46" s="94"/>
+      <c r="AD46" s="94"/>
+      <c r="AE46" s="94"/>
+      <c r="AF46" s="94"/>
+      <c r="AG46" s="94"/>
+      <c r="AH46" s="94"/>
+      <c r="AI46" s="94"/>
+      <c r="AJ46" s="94"/>
+      <c r="AK46" s="94"/>
+      <c r="AL46" s="94"/>
+      <c r="AM46" s="94"/>
+      <c r="AN46" s="94"/>
+      <c r="AO46" s="94"/>
+      <c r="AP46" s="94"/>
+      <c r="AQ46" s="94"/>
+      <c r="AR46" s="94"/>
+      <c r="AS46" s="94"/>
+      <c r="AT46" s="94"/>
+      <c r="AU46" s="94"/>
+      <c r="AV46" s="94"/>
+      <c r="AW46" s="94"/>
+      <c r="AX46" s="94"/>
+      <c r="AY46" s="94"/>
+      <c r="AZ46" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="K43:T43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
@@ -18018,30 +17874,174 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="U41:AZ41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18056,7 +18056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
@@ -24095,6 +24095,11 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -24102,11 +24107,6 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/010-外部設計/013-2-画面遷移図.xlsx
+++ b/010-外部設計/013-2-画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57A0DA-459D-4C18-8A51-3C68402F5887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746259BC-A200-49AE-8282-A96D5B62E3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,11 +1056,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1098,71 +1140,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,6 +1164,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1455,7 +1455,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1464,7 +1464,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -1477,7 +1477,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1486,7 +1486,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -1553,7 +1553,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1562,7 +1562,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -1575,7 +1575,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1584,7 +1584,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -1651,7 +1651,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1660,7 +1660,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -1673,7 +1673,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1742,7 +1742,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1751,7 +1751,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -1764,7 +1764,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1773,7 +1773,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -1839,7 +1839,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1908,7 +1908,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1917,7 +1917,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -1930,7 +1930,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -1939,7 +1939,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2006,7 +2006,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2015,7 +2015,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2028,7 +2028,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2097,7 +2097,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2106,7 +2106,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2119,7 +2119,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2128,7 +2128,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2195,7 +2195,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2204,7 +2204,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2217,7 +2217,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2226,7 +2226,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2293,7 +2293,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2302,7 +2302,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2315,7 +2315,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2324,7 +2324,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2391,7 +2391,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2400,7 +2400,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2413,7 +2413,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2422,7 +2422,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2489,7 +2489,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2498,7 +2498,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2511,7 +2511,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2520,7 +2520,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2587,7 +2587,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2596,7 +2596,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2609,7 +2609,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2678,7 +2678,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2687,7 +2687,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2700,7 +2700,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2769,7 +2769,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2778,7 +2778,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2791,7 +2791,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2800,7 +2800,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2867,7 +2867,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2876,7 +2876,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2889,7 +2889,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2898,7 +2898,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2965,7 +2965,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -2974,7 +2974,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -2987,7 +2987,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -3939,7 +3939,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4127,7 +4127,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4136,7 +4136,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -4214,7 +4214,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4223,7 +4223,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -4301,7 +4301,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4310,7 +4310,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -4388,7 +4388,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4397,7 +4397,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -4464,7 +4464,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4473,7 +4473,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -4486,7 +4486,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4495,7 +4495,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -4562,7 +4562,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4571,7 +4571,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -4584,7 +4584,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -4593,7 +4593,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -5041,7 +5041,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5121,7 +5121,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5190,7 +5190,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5199,7 +5199,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -5212,7 +5212,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5221,7 +5221,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -5288,7 +5288,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5297,7 +5297,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -5310,7 +5310,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5319,7 +5319,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -5738,7 +5738,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5748,7 +5748,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -5760,7 +5760,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5769,7 +5769,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -5782,7 +5782,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5791,7 +5791,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -5858,7 +5858,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5867,7 +5867,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -5880,7 +5880,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -5889,7 +5889,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -6010,7 +6010,7 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -6019,7 +6019,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -6032,7 +6032,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
@@ -6041,7 +6041,7 @@
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="ＭＳ ゴシック"/>
             <a:ea typeface="ＭＳ ゴシック"/>
@@ -12542,25 +12542,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="66" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -12576,49 +12576,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="50" t="s">
+      <c r="AF3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="63" t="s">
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -12634,26 +12634,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -13259,44 +13259,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="70"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="57"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -13315,42 +13315,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="73"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="60"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -13369,42 +13369,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="73"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="60"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -13423,42 +13423,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="72"/>
-      <c r="AN19" s="72"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="73"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="59"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="60"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -13477,42 +13477,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="73"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="60"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -13531,42 +13531,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="72"/>
-      <c r="AN21" s="72"/>
-      <c r="AO21" s="72"/>
-      <c r="AP21" s="72"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="73"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="60"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -13585,42 +13585,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="72"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="73"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="60"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -13639,42 +13639,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="72"/>
-      <c r="AM23" s="72"/>
-      <c r="AN23" s="72"/>
-      <c r="AO23" s="72"/>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="73"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="60"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -13693,42 +13693,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="72"/>
-      <c r="AL24" s="72"/>
-      <c r="AM24" s="72"/>
-      <c r="AN24" s="72"/>
-      <c r="AO24" s="72"/>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="72"/>
-      <c r="AR24" s="73"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="60"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -13747,42 +13747,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="72"/>
-      <c r="AL25" s="72"/>
-      <c r="AM25" s="72"/>
-      <c r="AN25" s="72"/>
-      <c r="AO25" s="72"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="73"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="60"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -13801,42 +13801,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="72"/>
-      <c r="AL26" s="72"/>
-      <c r="AM26" s="72"/>
-      <c r="AN26" s="72"/>
-      <c r="AO26" s="72"/>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="73"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="60"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -13855,42 +13855,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="72"/>
-      <c r="AN27" s="72"/>
-      <c r="AO27" s="72"/>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="73"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="60"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -13909,42 +13909,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="72"/>
-      <c r="AM28" s="72"/>
-      <c r="AN28" s="72"/>
-      <c r="AO28" s="72"/>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="73"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="60"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -13963,42 +13963,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="75"/>
-      <c r="W29" s="75"/>
-      <c r="X29" s="75"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="75"/>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="75"/>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="75"/>
-      <c r="AP29" s="75"/>
-      <c r="AQ29" s="75"/>
-      <c r="AR29" s="76"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="63"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -14770,30 +14770,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="50" t="s">
+      <c r="AF45" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="50"/>
-      <c r="AH45" s="50"/>
-      <c r="AI45" s="50"/>
-      <c r="AJ45" s="50"/>
-      <c r="AK45" s="50"/>
-      <c r="AL45" s="63" t="s">
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AM45" s="63"/>
-      <c r="AN45" s="63"/>
-      <c r="AO45" s="63"/>
-      <c r="AP45" s="63"/>
-      <c r="AQ45" s="63"/>
-      <c r="AR45" s="63"/>
-      <c r="AS45" s="63"/>
-      <c r="AT45" s="63"/>
-      <c r="AU45" s="63"/>
-      <c r="AV45" s="63"/>
-      <c r="AW45" s="63"/>
-      <c r="AX45" s="63"/>
-      <c r="AY45" s="63"/>
+      <c r="AM45" s="54"/>
+      <c r="AN45" s="54"/>
+      <c r="AO45" s="54"/>
+      <c r="AP45" s="54"/>
+      <c r="AQ45" s="54"/>
+      <c r="AR45" s="54"/>
+      <c r="AS45" s="54"/>
+      <c r="AT45" s="54"/>
+      <c r="AU45" s="54"/>
+      <c r="AV45" s="54"/>
+      <c r="AW45" s="54"/>
+      <c r="AX45" s="54"/>
+      <c r="AY45" s="54"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -14828,26 +14828,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
-      <c r="AI46" s="50"/>
-      <c r="AJ46" s="50"/>
-      <c r="AK46" s="50"/>
-      <c r="AL46" s="63"/>
-      <c r="AM46" s="63"/>
-      <c r="AN46" s="63"/>
-      <c r="AO46" s="63"/>
-      <c r="AP46" s="63"/>
-      <c r="AQ46" s="63"/>
-      <c r="AR46" s="63"/>
-      <c r="AS46" s="63"/>
-      <c r="AT46" s="63"/>
-      <c r="AU46" s="63"/>
-      <c r="AV46" s="63"/>
-      <c r="AW46" s="63"/>
-      <c r="AX46" s="63"/>
-      <c r="AY46" s="63"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="53"/>
+      <c r="AH46" s="53"/>
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="53"/>
+      <c r="AK46" s="53"/>
+      <c r="AL46" s="54"/>
+      <c r="AM46" s="54"/>
+      <c r="AN46" s="54"/>
+      <c r="AO46" s="54"/>
+      <c r="AP46" s="54"/>
+      <c r="AQ46" s="54"/>
+      <c r="AR46" s="54"/>
+      <c r="AS46" s="54"/>
+      <c r="AT46" s="54"/>
+      <c r="AU46" s="54"/>
+      <c r="AV46" s="54"/>
+      <c r="AW46" s="54"/>
+      <c r="AX46" s="54"/>
+      <c r="AY46" s="54"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -14882,30 +14882,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="50" t="s">
+      <c r="AF47" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="50"/>
-      <c r="AH47" s="50"/>
-      <c r="AI47" s="50"/>
-      <c r="AJ47" s="50"/>
-      <c r="AK47" s="50"/>
-      <c r="AL47" s="49">
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="64">
         <v>45539</v>
       </c>
-      <c r="AM47" s="49"/>
-      <c r="AN47" s="49"/>
-      <c r="AO47" s="49"/>
-      <c r="AP47" s="49"/>
-      <c r="AQ47" s="49"/>
-      <c r="AR47" s="49"/>
-      <c r="AS47" s="49"/>
-      <c r="AT47" s="49"/>
-      <c r="AU47" s="49"/>
-      <c r="AV47" s="49"/>
-      <c r="AW47" s="49"/>
-      <c r="AX47" s="49"/>
-      <c r="AY47" s="49"/>
+      <c r="AM47" s="64"/>
+      <c r="AN47" s="64"/>
+      <c r="AO47" s="64"/>
+      <c r="AP47" s="64"/>
+      <c r="AQ47" s="64"/>
+      <c r="AR47" s="64"/>
+      <c r="AS47" s="64"/>
+      <c r="AT47" s="64"/>
+      <c r="AU47" s="64"/>
+      <c r="AV47" s="64"/>
+      <c r="AW47" s="64"/>
+      <c r="AX47" s="64"/>
+      <c r="AY47" s="64"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -14940,26 +14940,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="50"/>
-      <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="50"/>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="49"/>
-      <c r="AQ48" s="49"/>
-      <c r="AR48" s="49"/>
-      <c r="AS48" s="49"/>
-      <c r="AT48" s="49"/>
-      <c r="AU48" s="49"/>
-      <c r="AV48" s="49"/>
-      <c r="AW48" s="49"/>
-      <c r="AX48" s="49"/>
-      <c r="AY48" s="49"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="64"/>
+      <c r="AM48" s="64"/>
+      <c r="AN48" s="64"/>
+      <c r="AO48" s="64"/>
+      <c r="AP48" s="64"/>
+      <c r="AQ48" s="64"/>
+      <c r="AR48" s="64"/>
+      <c r="AS48" s="64"/>
+      <c r="AT48" s="64"/>
+      <c r="AU48" s="64"/>
+      <c r="AV48" s="64"/>
+      <c r="AW48" s="64"/>
+      <c r="AX48" s="64"/>
+      <c r="AY48" s="64"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -14994,30 +14994,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="51" t="s">
+      <c r="AF49" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="53"/>
-      <c r="AL49" s="57" t="s">
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="58"/>
-      <c r="AO49" s="58"/>
-      <c r="AP49" s="58"/>
-      <c r="AQ49" s="58"/>
-      <c r="AR49" s="58"/>
-      <c r="AS49" s="58"/>
-      <c r="AT49" s="58"/>
-      <c r="AU49" s="58"/>
-      <c r="AV49" s="58"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="58"/>
-      <c r="AY49" s="59"/>
+      <c r="AM49" s="72"/>
+      <c r="AN49" s="72"/>
+      <c r="AO49" s="72"/>
+      <c r="AP49" s="72"/>
+      <c r="AQ49" s="72"/>
+      <c r="AR49" s="72"/>
+      <c r="AS49" s="72"/>
+      <c r="AT49" s="72"/>
+      <c r="AU49" s="72"/>
+      <c r="AV49" s="72"/>
+      <c r="AW49" s="72"/>
+      <c r="AX49" s="72"/>
+      <c r="AY49" s="73"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -15052,26 +15052,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="54"/>
-      <c r="AG50" s="55"/>
-      <c r="AH50" s="55"/>
-      <c r="AI50" s="55"/>
-      <c r="AJ50" s="55"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="60"/>
-      <c r="AM50" s="61"/>
-      <c r="AN50" s="61"/>
-      <c r="AO50" s="61"/>
-      <c r="AP50" s="61"/>
-      <c r="AQ50" s="61"/>
-      <c r="AR50" s="61"/>
-      <c r="AS50" s="61"/>
-      <c r="AT50" s="61"/>
-      <c r="AU50" s="61"/>
-      <c r="AV50" s="61"/>
-      <c r="AW50" s="61"/>
-      <c r="AX50" s="61"/>
-      <c r="AY50" s="62"/>
+      <c r="AF50" s="68"/>
+      <c r="AG50" s="69"/>
+      <c r="AH50" s="69"/>
+      <c r="AI50" s="69"/>
+      <c r="AJ50" s="69"/>
+      <c r="AK50" s="70"/>
+      <c r="AL50" s="74"/>
+      <c r="AM50" s="75"/>
+      <c r="AN50" s="75"/>
+      <c r="AO50" s="75"/>
+      <c r="AP50" s="75"/>
+      <c r="AQ50" s="75"/>
+      <c r="AR50" s="75"/>
+      <c r="AS50" s="75"/>
+      <c r="AT50" s="75"/>
+      <c r="AU50" s="75"/>
+      <c r="AV50" s="75"/>
+      <c r="AW50" s="75"/>
+      <c r="AX50" s="75"/>
+      <c r="AY50" s="76"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -15184,17 +15184,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15224,244 +15224,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="81"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="92"/>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="92"/>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="93"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="79" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="79" t="s">
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="79" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="81"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="93"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="82">
+      <c r="A5" s="94">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83">
+      <c r="B5" s="94"/>
+      <c r="C5" s="95">
         <v>42887</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="82" t="s">
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82" t="s">
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82" t="s">
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="82"/>
-      <c r="AX5" s="82"/>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="82"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94"/>
+      <c r="AZ5" s="94"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="77">
@@ -15529,134 +15529,134 @@
       <c r="AZ6" s="77"/>
     </row>
     <row r="7" spans="1:52" s="39" customFormat="1" ht="12">
-      <c r="A7" s="84">
+      <c r="A7" s="87">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="87">
+      <c r="B7" s="87"/>
+      <c r="C7" s="90">
         <v>45546</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="84" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84" t="s">
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="87"/>
+      <c r="AX7" s="87"/>
+      <c r="AY7" s="87"/>
+      <c r="AZ7" s="87"/>
     </row>
     <row r="8" spans="1:52" s="47" customFormat="1" ht="12">
-      <c r="A8" s="85">
+      <c r="A8" s="88">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89">
         <v>45547</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="85" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85" t="s">
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85" t="s">
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
     </row>
     <row r="9" spans="1:52" ht="12">
       <c r="A9" s="77">
@@ -17768,64 +17768,256 @@
       <c r="AZ45" s="77"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="94">
+      <c r="A46" s="85">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="94"/>
-      <c r="AB46" s="94"/>
-      <c r="AC46" s="94"/>
-      <c r="AD46" s="94"/>
-      <c r="AE46" s="94"/>
-      <c r="AF46" s="94"/>
-      <c r="AG46" s="94"/>
-      <c r="AH46" s="94"/>
-      <c r="AI46" s="94"/>
-      <c r="AJ46" s="94"/>
-      <c r="AK46" s="94"/>
-      <c r="AL46" s="94"/>
-      <c r="AM46" s="94"/>
-      <c r="AN46" s="94"/>
-      <c r="AO46" s="94"/>
-      <c r="AP46" s="94"/>
-      <c r="AQ46" s="94"/>
-      <c r="AR46" s="94"/>
-      <c r="AS46" s="94"/>
-      <c r="AT46" s="94"/>
-      <c r="AU46" s="94"/>
-      <c r="AV46" s="94"/>
-      <c r="AW46" s="94"/>
-      <c r="AX46" s="94"/>
-      <c r="AY46" s="94"/>
-      <c r="AZ46" s="94"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="85"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="85"/>
+      <c r="AG46" s="85"/>
+      <c r="AH46" s="85"/>
+      <c r="AI46" s="85"/>
+      <c r="AJ46" s="85"/>
+      <c r="AK46" s="85"/>
+      <c r="AL46" s="85"/>
+      <c r="AM46" s="85"/>
+      <c r="AN46" s="85"/>
+      <c r="AO46" s="85"/>
+      <c r="AP46" s="85"/>
+      <c r="AQ46" s="85"/>
+      <c r="AR46" s="85"/>
+      <c r="AS46" s="85"/>
+      <c r="AT46" s="85"/>
+      <c r="AU46" s="85"/>
+      <c r="AV46" s="85"/>
+      <c r="AW46" s="85"/>
+      <c r="AX46" s="85"/>
+      <c r="AY46" s="85"/>
+      <c r="AZ46" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="K44:T44"/>
     <mergeCell ref="C40:F40"/>
@@ -17850,198 +18042,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -24095,11 +24095,6 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -24107,6 +24102,11 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/010-外部設計/013-2-画面遷移図.xlsx
+++ b/010-外部設計/013-2-画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746259BC-A200-49AE-8282-A96D5B62E3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FC4A8C-91DB-42CA-88D3-6FEC94C39982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -1056,53 +1056,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1140,8 +1098,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1164,27 +1185,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2239,13 +2239,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>52045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>59615</xdr:colOff>
+      <xdr:colOff>82475</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>67283</xdr:rowOff>
     </xdr:to>
@@ -2264,8 +2264,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3782291" y="4831863"/>
-          <a:ext cx="1514342" cy="389311"/>
+          <a:off x="3863340" y="4890745"/>
+          <a:ext cx="1530275" cy="403858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,13 +2337,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>29266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>44504</xdr:rowOff>
     </xdr:to>
@@ -2362,8 +2362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5807825" y="4809084"/>
-          <a:ext cx="1448493" cy="389311"/>
+          <a:off x="5913120" y="4867966"/>
+          <a:ext cx="1470660" cy="403858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3450,13 +3450,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>57075</xdr:colOff>
+      <xdr:colOff>79935</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>98810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>98810</xdr:rowOff>
     </xdr:to>
@@ -3475,8 +3475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5294093" y="5003319"/>
-          <a:ext cx="513732" cy="0"/>
+          <a:off x="5391075" y="5067050"/>
+          <a:ext cx="522045" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7106,13 +7106,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>32435</xdr:colOff>
+      <xdr:colOff>55295</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>67283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>32435</xdr:colOff>
+      <xdr:colOff>55295</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>52551</xdr:rowOff>
     </xdr:to>
@@ -7131,8 +7131,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4630711" y="5311945"/>
-          <a:ext cx="0" cy="248027"/>
+          <a:off x="4627295" y="5294603"/>
+          <a:ext cx="0" cy="244348"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7228,13 +7228,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>34291</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>44504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>42042</xdr:colOff>
+      <xdr:colOff>64902</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>42041</xdr:rowOff>
     </xdr:to>
@@ -7253,8 +7253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6661063" y="5289166"/>
-          <a:ext cx="7751" cy="260296"/>
+          <a:off x="6648451" y="5271824"/>
+          <a:ext cx="7751" cy="256617"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7628,7 +7628,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 87924"/>
+            <a:gd name="adj1" fmla="val 92402"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7724,15 +7724,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>11725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57809</xdr:rowOff>
+      <xdr:colOff>11726</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>105104</xdr:colOff>
+      <xdr:colOff>123093</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>41034</xdr:rowOff>
+      <xdr:rowOff>41033</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7747,8 +7747,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="2155733" y="2659222"/>
-          <a:ext cx="2242949" cy="645172"/>
+          <a:off x="2195147" y="2716827"/>
+          <a:ext cx="2104293" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7970,15 +7970,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>99849</xdr:colOff>
+      <xdr:colOff>105508</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>35385</xdr:rowOff>
+      <xdr:rowOff>35386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>56460</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63061</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7995,8 +7995,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="6068351" y="-956468"/>
-          <a:ext cx="348241" cy="5295866"/>
+          <a:off x="5936769" y="-848737"/>
+          <a:ext cx="474568" cy="5232198"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8039,8 +8039,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>115614</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63062</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8055,8 +8055,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4346028" y="1508234"/>
-          <a:ext cx="0" cy="357352"/>
+          <a:off x="4294891" y="1520967"/>
+          <a:ext cx="0" cy="489541"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8092,15 +8092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>177808</xdr:colOff>
+      <xdr:colOff>176696</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>36688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63062</xdr:rowOff>
+      <xdr:colOff>177808</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8117,8 +8117,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6804580" y="1518647"/>
-          <a:ext cx="6123" cy="346939"/>
+          <a:off x="6729896" y="1531380"/>
+          <a:ext cx="1112" cy="467405"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8154,9 +8154,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>173421</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63062</xdr:rowOff>
+      <xdr:colOff>176696</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
@@ -8178,9 +8178,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6800193" y="1865586"/>
-          <a:ext cx="4387" cy="284599"/>
+        <a:xfrm flipV="1">
+          <a:off x="6729896" y="1998785"/>
+          <a:ext cx="1112" cy="165953"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8216,13 +8216,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>52083</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57807</xdr:rowOff>
+      <xdr:colOff>46893</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>52552</xdr:colOff>
+      <xdr:colOff>52084</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>32594</xdr:rowOff>
     </xdr:to>
@@ -8240,9 +8240,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="8886028" y="1860331"/>
-          <a:ext cx="469" cy="279587"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8780585" y="2010508"/>
+          <a:ext cx="5191" cy="143963"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8278,15 +8278,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>5862</xdr:colOff>
+      <xdr:colOff>10510</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>99705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>65847</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>52755</xdr:rowOff>
+      <xdr:colOff>65846</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8303,8 +8303,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="4933199" y="1356291"/>
-          <a:ext cx="210958" cy="4250985"/>
+          <a:off x="5033147" y="1304448"/>
+          <a:ext cx="131526" cy="4291005"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8340,9 +8340,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>104503</xdr:rowOff>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -8364,9 +8364,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2651760" y="4693920"/>
-          <a:ext cx="3810" cy="201179"/>
+        <a:xfrm flipV="1">
+          <a:off x="2665268" y="4617027"/>
+          <a:ext cx="0" cy="248780"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8650,15 +8650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>156437</xdr:colOff>
+      <xdr:colOff>154302</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>99704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>156437</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8675,8 +8675,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5223737" y="3385829"/>
-          <a:ext cx="726" cy="205096"/>
+          <a:off x="5304371" y="3384187"/>
+          <a:ext cx="2135" cy="126268"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8687,6 +8687,1508 @@
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4354</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>8708</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="直線コネクタ 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333A4E83-FCB4-4835-8EAE-901082E4366A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1488597" y="3942901"/>
+          <a:ext cx="7061137" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="直線コネクタ 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98B9B95-4860-49FF-8497-95989DF0575F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4223657" y="3940629"/>
+          <a:ext cx="0" cy="165462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34835</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E442776D-5E01-4427-8C4E-49C5623F77BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6400800" y="3940629"/>
+          <a:ext cx="0" cy="169817"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>4354</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>4354</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA33A40-6B5E-4E14-A46B-F2CB6FB4E0EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8425543" y="3940629"/>
+          <a:ext cx="0" cy="187234"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8709</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8709</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直線矢印コネクタ 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8294B605-A740-4185-A0EA-D134B052EFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1471749" y="3396343"/>
+          <a:ext cx="0" cy="539931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45024</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="直線コネクタ 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CA4F89-D94E-49C8-BA0F-9CFAD1CB7F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2933700" y="4738251"/>
+          <a:ext cx="3678382" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B05CB72-8225-44D5-A4E2-8A3D355CFEA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2933700" y="4738255"/>
+          <a:ext cx="0" cy="128154"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62345</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>62345</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線コネクタ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB75EDC-0AB2-4474-82DB-2D40DA458959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4651663" y="4738255"/>
+          <a:ext cx="0" cy="128154"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直線コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB382B6F-AF04-40D3-8566-496BA795E51C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6605154" y="4738255"/>
+          <a:ext cx="0" cy="103909"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>124692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="直線コネクタ 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B36582-DAD3-4DB8-82DD-7AAB66F10F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3745245" y="3941318"/>
+          <a:ext cx="0" cy="2797412"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86140</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="直線コネクタ 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3313FFE7-3A45-4CBE-BFFC-5D87B7B2D13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3743739" y="5758070"/>
+          <a:ext cx="5353878" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>92765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="264" name="直線コネクタ 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0192E77F-694E-4092-9BDD-763F855E9636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9097617" y="5751443"/>
+          <a:ext cx="0" cy="145774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>69669</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>69669</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>92765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直線コネクタ 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2ECE74-AEB3-496E-BE55-C0DDBB427104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6844938" y="5722667"/>
+          <a:ext cx="0" cy="143881"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>169819</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>169819</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>92765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直線コネクタ 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5062475-33C9-4EC5-AD94-9F5EE8647618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4193179" y="5722667"/>
+          <a:ext cx="0" cy="143881"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>117566</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>17417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>34834</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>17417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="直線コネクタ 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28DD57B-D5B4-43B2-88AD-2C009520EEB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3409406" y="6705600"/>
+          <a:ext cx="283028" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5255</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="コネクタ: カギ線 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ECA209-B58E-4CF2-8A63-A9657B365F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1476703" y="3373821"/>
+          <a:ext cx="6148552" cy="236482"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -85"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>136635</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>136635</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57807</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="直線コネクタ 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E69C661-501A-4F6E-A37F-E2D7810D1CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5659821" y="3384331"/>
+          <a:ext cx="0" cy="220717"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17584</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>158261</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="246" name="直線コネクタ 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF26C3E7-253F-417C-8588-C8A5D8770F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1289538" y="1781908"/>
+          <a:ext cx="7965831" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>164123</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>164123</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="直線コネクタ 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6006141B-AFBD-41F5-B37A-023AFB99B746}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="9261231" y="1529862"/>
+          <a:ext cx="0" cy="263769"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>99646</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>99646</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線コネクタ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5D826C-1F8C-4132-A84B-615CE7557A50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7016261" y="1529862"/>
+          <a:ext cx="0" cy="263769"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>175845</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>175845</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AE0125-00BD-4A15-AD9F-F55B0F18048D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4900245" y="1529862"/>
+          <a:ext cx="0" cy="263769"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11723</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11723</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827755E6-BD60-42F3-8C1C-4BD5E2EBB3F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1283677" y="1758460"/>
+          <a:ext cx="0" cy="1242646"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="260" name="直線コネクタ 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92450788-05A6-46F0-8EE0-322BCDE0CA2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4900246" y="1799492"/>
+          <a:ext cx="0" cy="363416"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>93784</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>93784</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直線コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE256CF-669D-40B8-940D-E91904BBCFC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7010399" y="1799492"/>
+          <a:ext cx="0" cy="363416"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>164122</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>164122</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直線コネクタ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B28291-D7BE-4213-A3E5-6B31E9F4E9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9261230" y="1799492"/>
+          <a:ext cx="0" cy="363416"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -12421,7 +13923,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="AL49" sqref="AL49:AY50"/>
     </sheetView>
   </sheetViews>
@@ -12542,25 +14044,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="51" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -12576,49 +14078,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="53" t="s">
+      <c r="AF3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="54" t="s">
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -12634,26 +14136,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -13259,44 +14761,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="57"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="69"/>
+      <c r="AL16" s="69"/>
+      <c r="AM16" s="69"/>
+      <c r="AN16" s="69"/>
+      <c r="AO16" s="69"/>
+      <c r="AP16" s="69"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="70"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -13315,42 +14817,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="60"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="73"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -13369,42 +14871,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="60"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="73"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -13423,42 +14925,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="60"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="73"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -13477,42 +14979,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="60"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="73"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -13531,42 +15033,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="60"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="72"/>
+      <c r="AI21" s="72"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="72"/>
+      <c r="AL21" s="72"/>
+      <c r="AM21" s="72"/>
+      <c r="AN21" s="72"/>
+      <c r="AO21" s="72"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="72"/>
+      <c r="AR21" s="73"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -13585,42 +15087,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="60"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="72"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="73"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -13639,42 +15141,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="60"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="72"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="72"/>
+      <c r="AO23" s="72"/>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="73"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -13693,42 +15195,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="60"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="72"/>
+      <c r="AN24" s="72"/>
+      <c r="AO24" s="72"/>
+      <c r="AP24" s="72"/>
+      <c r="AQ24" s="72"/>
+      <c r="AR24" s="73"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -13747,42 +15249,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="60"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="72"/>
+      <c r="AO25" s="72"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="73"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -13801,42 +15303,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="60"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="72"/>
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="72"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="73"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -13855,42 +15357,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="60"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="72"/>
+      <c r="AO27" s="72"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="73"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -13909,42 +15411,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="60"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="72"/>
+      <c r="AN28" s="72"/>
+      <c r="AO28" s="72"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="73"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -13963,42 +15465,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="63"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="75"/>
+      <c r="AQ29" s="75"/>
+      <c r="AR29" s="76"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -14770,30 +16272,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="53" t="s">
+      <c r="AF45" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="53"/>
-      <c r="AK45" s="53"/>
-      <c r="AL45" s="54" t="s">
+      <c r="AG45" s="50"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="50"/>
+      <c r="AL45" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AM45" s="54"/>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54"/>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54"/>
-      <c r="AR45" s="54"/>
-      <c r="AS45" s="54"/>
-      <c r="AT45" s="54"/>
-      <c r="AU45" s="54"/>
-      <c r="AV45" s="54"/>
-      <c r="AW45" s="54"/>
-      <c r="AX45" s="54"/>
-      <c r="AY45" s="54"/>
+      <c r="AM45" s="63"/>
+      <c r="AN45" s="63"/>
+      <c r="AO45" s="63"/>
+      <c r="AP45" s="63"/>
+      <c r="AQ45" s="63"/>
+      <c r="AR45" s="63"/>
+      <c r="AS45" s="63"/>
+      <c r="AT45" s="63"/>
+      <c r="AU45" s="63"/>
+      <c r="AV45" s="63"/>
+      <c r="AW45" s="63"/>
+      <c r="AX45" s="63"/>
+      <c r="AY45" s="63"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -14828,26 +16330,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="53"/>
-      <c r="AL46" s="54"/>
-      <c r="AM46" s="54"/>
-      <c r="AN46" s="54"/>
-      <c r="AO46" s="54"/>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="54"/>
-      <c r="AR46" s="54"/>
-      <c r="AS46" s="54"/>
-      <c r="AT46" s="54"/>
-      <c r="AU46" s="54"/>
-      <c r="AV46" s="54"/>
-      <c r="AW46" s="54"/>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="50"/>
+      <c r="AL46" s="63"/>
+      <c r="AM46" s="63"/>
+      <c r="AN46" s="63"/>
+      <c r="AO46" s="63"/>
+      <c r="AP46" s="63"/>
+      <c r="AQ46" s="63"/>
+      <c r="AR46" s="63"/>
+      <c r="AS46" s="63"/>
+      <c r="AT46" s="63"/>
+      <c r="AU46" s="63"/>
+      <c r="AV46" s="63"/>
+      <c r="AW46" s="63"/>
+      <c r="AX46" s="63"/>
+      <c r="AY46" s="63"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -14882,30 +16384,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="53" t="s">
+      <c r="AF47" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="53"/>
-      <c r="AH47" s="53"/>
-      <c r="AI47" s="53"/>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="64">
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="50"/>
+      <c r="AI47" s="50"/>
+      <c r="AJ47" s="50"/>
+      <c r="AK47" s="50"/>
+      <c r="AL47" s="49">
         <v>45539</v>
       </c>
-      <c r="AM47" s="64"/>
-      <c r="AN47" s="64"/>
-      <c r="AO47" s="64"/>
-      <c r="AP47" s="64"/>
-      <c r="AQ47" s="64"/>
-      <c r="AR47" s="64"/>
-      <c r="AS47" s="64"/>
-      <c r="AT47" s="64"/>
-      <c r="AU47" s="64"/>
-      <c r="AV47" s="64"/>
-      <c r="AW47" s="64"/>
-      <c r="AX47" s="64"/>
-      <c r="AY47" s="64"/>
+      <c r="AM47" s="49"/>
+      <c r="AN47" s="49"/>
+      <c r="AO47" s="49"/>
+      <c r="AP47" s="49"/>
+      <c r="AQ47" s="49"/>
+      <c r="AR47" s="49"/>
+      <c r="AS47" s="49"/>
+      <c r="AT47" s="49"/>
+      <c r="AU47" s="49"/>
+      <c r="AV47" s="49"/>
+      <c r="AW47" s="49"/>
+      <c r="AX47" s="49"/>
+      <c r="AY47" s="49"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -14940,26 +16442,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="53"/>
-      <c r="AH48" s="53"/>
-      <c r="AI48" s="53"/>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="64"/>
-      <c r="AM48" s="64"/>
-      <c r="AN48" s="64"/>
-      <c r="AO48" s="64"/>
-      <c r="AP48" s="64"/>
-      <c r="AQ48" s="64"/>
-      <c r="AR48" s="64"/>
-      <c r="AS48" s="64"/>
-      <c r="AT48" s="64"/>
-      <c r="AU48" s="64"/>
-      <c r="AV48" s="64"/>
-      <c r="AW48" s="64"/>
-      <c r="AX48" s="64"/>
-      <c r="AY48" s="64"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="49"/>
+      <c r="AM48" s="49"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="49"/>
+      <c r="AP48" s="49"/>
+      <c r="AQ48" s="49"/>
+      <c r="AR48" s="49"/>
+      <c r="AS48" s="49"/>
+      <c r="AT48" s="49"/>
+      <c r="AU48" s="49"/>
+      <c r="AV48" s="49"/>
+      <c r="AW48" s="49"/>
+      <c r="AX48" s="49"/>
+      <c r="AY48" s="49"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -14994,30 +16496,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="65" t="s">
+      <c r="AF49" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="66"/>
-      <c r="AH49" s="66"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="66"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="71" t="s">
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="53"/>
+      <c r="AL49" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AM49" s="72"/>
-      <c r="AN49" s="72"/>
-      <c r="AO49" s="72"/>
-      <c r="AP49" s="72"/>
-      <c r="AQ49" s="72"/>
-      <c r="AR49" s="72"/>
-      <c r="AS49" s="72"/>
-      <c r="AT49" s="72"/>
-      <c r="AU49" s="72"/>
-      <c r="AV49" s="72"/>
-      <c r="AW49" s="72"/>
-      <c r="AX49" s="72"/>
-      <c r="AY49" s="73"/>
+      <c r="AM49" s="58"/>
+      <c r="AN49" s="58"/>
+      <c r="AO49" s="58"/>
+      <c r="AP49" s="58"/>
+      <c r="AQ49" s="58"/>
+      <c r="AR49" s="58"/>
+      <c r="AS49" s="58"/>
+      <c r="AT49" s="58"/>
+      <c r="AU49" s="58"/>
+      <c r="AV49" s="58"/>
+      <c r="AW49" s="58"/>
+      <c r="AX49" s="58"/>
+      <c r="AY49" s="59"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -15052,26 +16554,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="68"/>
-      <c r="AG50" s="69"/>
-      <c r="AH50" s="69"/>
-      <c r="AI50" s="69"/>
-      <c r="AJ50" s="69"/>
-      <c r="AK50" s="70"/>
-      <c r="AL50" s="74"/>
-      <c r="AM50" s="75"/>
-      <c r="AN50" s="75"/>
-      <c r="AO50" s="75"/>
-      <c r="AP50" s="75"/>
-      <c r="AQ50" s="75"/>
-      <c r="AR50" s="75"/>
-      <c r="AS50" s="75"/>
-      <c r="AT50" s="75"/>
-      <c r="AU50" s="75"/>
-      <c r="AV50" s="75"/>
-      <c r="AW50" s="75"/>
-      <c r="AX50" s="75"/>
-      <c r="AY50" s="76"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="55"/>
+      <c r="AK50" s="56"/>
+      <c r="AL50" s="60"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AQ50" s="61"/>
+      <c r="AR50" s="61"/>
+      <c r="AS50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="61"/>
+      <c r="AV50" s="61"/>
+      <c r="AW50" s="61"/>
+      <c r="AX50" s="61"/>
+      <c r="AY50" s="62"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -15184,17 +16686,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15224,244 +16726,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="81"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="90"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="84"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="92"/>
+      <c r="AR2" s="92"/>
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="93"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="91" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="91" t="s">
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="91" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="93"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="81"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="94">
+      <c r="A5" s="82">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95">
+      <c r="B5" s="82"/>
+      <c r="C5" s="83">
         <v>42887</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="94" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94" t="s">
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="94"/>
-      <c r="AZ5" s="94"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="82"/>
+      <c r="AX5" s="82"/>
+      <c r="AY5" s="82"/>
+      <c r="AZ5" s="82"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="77">
@@ -15529,134 +17031,134 @@
       <c r="AZ6" s="77"/>
     </row>
     <row r="7" spans="1:52" s="39" customFormat="1" ht="12">
-      <c r="A7" s="87">
+      <c r="A7" s="84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="90">
+      <c r="B7" s="84"/>
+      <c r="C7" s="87">
         <v>45546</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="87" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87" t="s">
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87" t="s">
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="87"/>
-      <c r="AX7" s="87"/>
-      <c r="AY7" s="87"/>
-      <c r="AZ7" s="87"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
     </row>
     <row r="8" spans="1:52" s="47" customFormat="1" ht="12">
-      <c r="A8" s="88">
+      <c r="A8" s="85">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89">
+      <c r="B8" s="85"/>
+      <c r="C8" s="86">
         <v>45547</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="88" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88" t="s">
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88" t="s">
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
     </row>
     <row r="9" spans="1:52" ht="12">
       <c r="A9" s="77">
@@ -17768,232 +19270,88 @@
       <c r="AZ45" s="77"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="85">
+      <c r="A46" s="94">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="85"/>
-      <c r="X46" s="85"/>
-      <c r="Y46" s="85"/>
-      <c r="Z46" s="85"/>
-      <c r="AA46" s="85"/>
-      <c r="AB46" s="85"/>
-      <c r="AC46" s="85"/>
-      <c r="AD46" s="85"/>
-      <c r="AE46" s="85"/>
-      <c r="AF46" s="85"/>
-      <c r="AG46" s="85"/>
-      <c r="AH46" s="85"/>
-      <c r="AI46" s="85"/>
-      <c r="AJ46" s="85"/>
-      <c r="AK46" s="85"/>
-      <c r="AL46" s="85"/>
-      <c r="AM46" s="85"/>
-      <c r="AN46" s="85"/>
-      <c r="AO46" s="85"/>
-      <c r="AP46" s="85"/>
-      <c r="AQ46" s="85"/>
-      <c r="AR46" s="85"/>
-      <c r="AS46" s="85"/>
-      <c r="AT46" s="85"/>
-      <c r="AU46" s="85"/>
-      <c r="AV46" s="85"/>
-      <c r="AW46" s="85"/>
-      <c r="AX46" s="85"/>
-      <c r="AY46" s="85"/>
-      <c r="AZ46" s="85"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="94"/>
+      <c r="V46" s="94"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94"/>
+      <c r="Y46" s="94"/>
+      <c r="Z46" s="94"/>
+      <c r="AA46" s="94"/>
+      <c r="AB46" s="94"/>
+      <c r="AC46" s="94"/>
+      <c r="AD46" s="94"/>
+      <c r="AE46" s="94"/>
+      <c r="AF46" s="94"/>
+      <c r="AG46" s="94"/>
+      <c r="AH46" s="94"/>
+      <c r="AI46" s="94"/>
+      <c r="AJ46" s="94"/>
+      <c r="AK46" s="94"/>
+      <c r="AL46" s="94"/>
+      <c r="AM46" s="94"/>
+      <c r="AN46" s="94"/>
+      <c r="AO46" s="94"/>
+      <c r="AP46" s="94"/>
+      <c r="AQ46" s="94"/>
+      <c r="AR46" s="94"/>
+      <c r="AS46" s="94"/>
+      <c r="AT46" s="94"/>
+      <c r="AU46" s="94"/>
+      <c r="AV46" s="94"/>
+      <c r="AW46" s="94"/>
+      <c r="AX46" s="94"/>
+      <c r="AY46" s="94"/>
+      <c r="AZ46" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="K43:T43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
@@ -18018,30 +19376,174 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="U41:AZ41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18057,7 +19559,7 @@
   <dimension ref="A1:BD62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:S2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -24095,6 +25597,11 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -24102,11 +25609,6 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/010-外部設計/013-2-画面遷移図.xlsx
+++ b/010-外部設計/013-2-画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FC4A8C-91DB-42CA-88D3-6FEC94C39982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5E35C4-F74D-4871-93BD-0E43F758EAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,7 +934,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1056,11 +1056,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1098,71 +1140,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,6 +1164,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1261,6 +1261,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1402,14 +1414,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>116954</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>109864</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>96021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1426,7 +1438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="578427" y="2998699"/>
+          <a:off x="578427" y="3358929"/>
           <a:ext cx="1080655" cy="394692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1500,14 +1512,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>102635</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>79775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1524,8 +1536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="461223" y="1177066"/>
-          <a:ext cx="1232199" cy="403860"/>
+          <a:off x="462853" y="1536481"/>
+          <a:ext cx="1237904" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,14 +1610,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>103824</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>36380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>80964</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1622,8 +1634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2076059" y="1173256"/>
-          <a:ext cx="1232199" cy="403860"/>
+          <a:off x="2085024" y="1532671"/>
+          <a:ext cx="1237904" cy="403860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,14 +1701,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>114744</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45354</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>90539</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149915</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52945</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1713,7 +1725,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3716926" y="2165099"/>
+          <a:off x="3716926" y="2525329"/>
           <a:ext cx="1790740" cy="409361"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1787,14 +1799,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28015</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>13757</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>165175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60496</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1811,7 +1823,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2009215" y="2133502"/>
+          <a:off x="2009215" y="2493732"/>
           <a:ext cx="1397924" cy="503939"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -1855,14 +1867,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>36803</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52044</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1879,7 +1891,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2065020" y="4068476"/>
+          <a:off x="2065020" y="4428706"/>
           <a:ext cx="1095895" cy="389313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1953,14 +1965,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>44425</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>59663</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>45820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1977,7 +1989,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1996440" y="4824243"/>
+          <a:off x="1996440" y="5184473"/>
           <a:ext cx="1240675" cy="389311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2044,14 +2056,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>23913</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>39152</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2068,7 +2080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1900151" y="6424713"/>
+          <a:off x="1900151" y="6784943"/>
           <a:ext cx="1463733" cy="389312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2142,14 +2154,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>31533</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>74855</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>46772</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>32930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2166,7 +2178,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3843251" y="6432333"/>
+          <a:off x="3843251" y="6792563"/>
           <a:ext cx="1468622" cy="389312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2240,14 +2252,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52045</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>82475</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>67283</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2264,8 +2276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3863340" y="4890745"/>
-          <a:ext cx="1530275" cy="403858"/>
+          <a:off x="3805151" y="5192093"/>
+          <a:ext cx="1514342" cy="389311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2338,14 +2350,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>29266</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44504</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2362,8 +2374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5913120" y="4867966"/>
-          <a:ext cx="1470660" cy="403858"/>
+          <a:off x="5830685" y="5169314"/>
+          <a:ext cx="1448493" cy="389311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2436,14 +2448,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99595</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>59615</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114837</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100994</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2460,7 +2472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3843251" y="5752250"/>
+          <a:off x="3843251" y="6112480"/>
           <a:ext cx="1453382" cy="389314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2534,14 +2546,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99595</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114837</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100994</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2558,7 +2570,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5627716" y="5752250"/>
+          <a:off x="5627716" y="6112480"/>
           <a:ext cx="1742902" cy="389314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2625,14 +2637,14 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99595</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114837</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100994</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2649,7 +2661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7692735" y="5752250"/>
+          <a:off x="7692735" y="6112480"/>
           <a:ext cx="1740132" cy="389314"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2716,14 +2728,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>36803</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>59615</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52044</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2740,7 +2752,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3843251" y="4068476"/>
+          <a:off x="3843251" y="4428706"/>
           <a:ext cx="1453382" cy="389313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2814,14 +2826,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44423</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>59664</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2838,7 +2850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5703916" y="4076096"/>
+          <a:off x="5703916" y="4436326"/>
           <a:ext cx="1620982" cy="389313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2912,14 +2924,14 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52043</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>67284</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2936,7 +2948,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7692735" y="4083716"/>
+          <a:off x="7692735" y="4443946"/>
           <a:ext cx="1537162" cy="389313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3003,14 +3015,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>179069</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85751</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>179069</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62056</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3027,8 +3039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="2776495" y="1576621"/>
-          <a:ext cx="0" cy="543727"/>
+          <a:off x="2700596" y="1942272"/>
+          <a:ext cx="0" cy="544329"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3057,14 +3069,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>69534</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3081,8 +3093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1683181" y="1348516"/>
-          <a:ext cx="384304" cy="1270"/>
+          <a:off x="1690516" y="1707931"/>
+          <a:ext cx="385934" cy="1270"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3111,14 +3123,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>174170</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>94454</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>15019</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95404</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>81561</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3135,7 +3147,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1074715" y="4500199"/>
+          <a:off x="1074715" y="4860429"/>
           <a:ext cx="921504" cy="499714"/>
         </a:xfrm>
         <a:custGeom>
@@ -3235,14 +3247,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>70669</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>151994</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>70669</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>102204</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3259,7 +3271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4933614" y="2576539"/>
+          <a:off x="4933614" y="2936769"/>
           <a:ext cx="0" cy="407410"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3289,14 +3301,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95223</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>55880</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95223</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81381</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3313,7 +3325,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="3163455" y="4251587"/>
+          <a:off x="3163455" y="4611817"/>
           <a:ext cx="674716" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3343,14 +3355,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98809</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98809</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3367,7 +3379,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5304253" y="4255173"/>
+          <a:off x="5304253" y="4615403"/>
           <a:ext cx="399663" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3397,14 +3409,14 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98809</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98809</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3421,7 +3433,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7319818" y="4255173"/>
+          <a:off x="7319818" y="4615403"/>
           <a:ext cx="385617" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3451,14 +3463,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>79935</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>98810</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>98810</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3475,8 +3487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5391075" y="5067050"/>
-          <a:ext cx="522045" cy="0"/>
+          <a:off x="5316953" y="5363549"/>
+          <a:ext cx="513732" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3505,14 +3517,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>172720</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>98810</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>98810</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3529,7 +3541,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3234575" y="5003319"/>
+          <a:off x="3234575" y="5363549"/>
           <a:ext cx="608676" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3559,14 +3571,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>57075</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>45210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>45210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3583,7 +3595,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="5294093" y="5947246"/>
+          <a:off x="5294093" y="6307476"/>
           <a:ext cx="333623" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3613,14 +3625,14 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>45210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>121919</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>45210</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3637,7 +3649,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7370618" y="5947246"/>
+          <a:off x="7370618" y="6307476"/>
           <a:ext cx="329737" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3667,14 +3679,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>116840</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114412</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>100569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>55880</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>116365</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>102522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3691,7 +3703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3358804" y="6639903"/>
+          <a:off x="3358804" y="7000133"/>
           <a:ext cx="479367" cy="1953"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3721,14 +3733,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>5079</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>50625</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>36782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>5079</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>26453</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12610</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3745,7 +3757,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="2346497" y="5204516"/>
+          <a:off x="2346497" y="5564746"/>
           <a:ext cx="0" cy="1222737"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3775,14 +3787,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>62348</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>65530</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3799,7 +3811,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2808316" y="5216239"/>
+          <a:off x="2808316" y="5576469"/>
           <a:ext cx="1034935" cy="751327"/>
         </a:xfrm>
         <a:custGeom>
@@ -3887,14 +3899,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>29731</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104255</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>165439</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89784</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>75941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3911,7 +3923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="389949" y="4011237"/>
+          <a:off x="389949" y="4371467"/>
           <a:ext cx="1396472" cy="484292"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -3955,14 +3967,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3628</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>96673</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>81276</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>96673</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82831</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3979,7 +3991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1804719" y="4253037"/>
+          <a:off x="1804719" y="4613267"/>
           <a:ext cx="257757" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4009,14 +4021,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7256</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>113402</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7256</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>93724</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>79881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4033,7 +4045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="1087911" y="3396929"/>
+          <a:off x="1087911" y="3757159"/>
           <a:ext cx="0" cy="603777"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4063,14 +4075,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>65591</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>48768</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>46542</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>52028</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>135167</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4087,7 +4099,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2407009" y="2625713"/>
+          <a:off x="2407009" y="2985943"/>
           <a:ext cx="341169" cy="155660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4150,14 +4162,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>4736</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30136</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4174,8 +4186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1471612" y="4057624"/>
-          <a:ext cx="342900" cy="153987"/>
+          <a:off x="1464685" y="4396639"/>
+          <a:ext cx="341168" cy="150091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4237,14 +4249,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>96836</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9593</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>44425</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4261,8 +4273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1182686" y="4448243"/>
-          <a:ext cx="422276" cy="163420"/>
+          <a:off x="1177491" y="4775568"/>
+          <a:ext cx="420544" cy="159523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,14 +4336,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>128574</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>16865</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>8857</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>20231</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4348,8 +4360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3024174" y="2131415"/>
-          <a:ext cx="423208" cy="155766"/>
+          <a:off x="3010319" y="2496840"/>
+          <a:ext cx="420611" cy="155766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4411,14 +4423,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>157922</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106794</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>145427</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99704</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4435,7 +4447,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4480540" y="2988539"/>
+          <a:off x="4480540" y="3348769"/>
           <a:ext cx="1442232" cy="394692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4509,14 +4521,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>69022</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106794</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>62671</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99704</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85861</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4533,7 +4545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6386695" y="2988539"/>
+          <a:off x="6386695" y="3348769"/>
           <a:ext cx="1434521" cy="394692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4607,14 +4619,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>140571</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130400</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>63800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130405</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4631,7 +4643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5917916" y="3136836"/>
+          <a:off x="5917916" y="3497066"/>
           <a:ext cx="463557" cy="5"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4661,14 +4673,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114245</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114245</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4685,7 +4697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3417224" y="2386390"/>
+          <a:off x="3417224" y="2746620"/>
           <a:ext cx="291638" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4715,14 +4727,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>31378</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>116952</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>13447</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>30971</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17129</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4739,7 +4751,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1652360" y="3123388"/>
+          <a:off x="1652360" y="3483618"/>
           <a:ext cx="702505" cy="939256"/>
         </a:xfrm>
         <a:custGeom>
@@ -4827,14 +4839,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>138954</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>208</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>3809</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44763</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4851,7 +4863,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="3020699" y="2577153"/>
+          <a:off x="3020699" y="2937383"/>
           <a:ext cx="1125619" cy="1499283"/>
         </a:xfrm>
         <a:custGeom>
@@ -4977,14 +4989,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>79939</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>71383</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>125509</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>98277</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5001,7 +5013,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1700921" y="2953128"/>
+          <a:off x="1700921" y="3313358"/>
           <a:ext cx="946115" cy="151585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5057,14 +5069,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>138212</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76308</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>7</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>81727</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5081,7 +5093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3019957" y="3082744"/>
+          <a:off x="3019957" y="3442974"/>
           <a:ext cx="942450" cy="143965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5137,14 +5149,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>145799</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>25884</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5161,7 +5173,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5743035" y="2162606"/>
+          <a:off x="5743035" y="2522836"/>
           <a:ext cx="1861285" cy="409894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5235,14 +5247,14 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>69263</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>32594</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>34903</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137688</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5259,7 +5271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7827808" y="2152339"/>
+          <a:off x="7827808" y="2512569"/>
           <a:ext cx="1766731" cy="409894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5333,14 +5345,14 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>28353</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107413</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>52753</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>108662</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11692</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5357,7 +5369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7606789" y="2379558"/>
+          <a:off x="7606789" y="2739788"/>
           <a:ext cx="204509" cy="1249"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5387,14 +5399,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>93817</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>108662</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>137808</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>110958</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5411,7 +5423,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5510944" y="2380807"/>
+          <a:off x="5510944" y="2741037"/>
           <a:ext cx="224100" cy="2296"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5441,14 +5453,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2289</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>103765</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>112189</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>70637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5465,7 +5477,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1443162" y="2375910"/>
+          <a:off x="1443162" y="2736140"/>
           <a:ext cx="560898" cy="618024"/>
         </a:xfrm>
         <a:custGeom>
@@ -5577,14 +5589,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80681</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119268</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5601,8 +5613,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1119136" y="1571551"/>
-          <a:ext cx="0" cy="1423439"/>
+          <a:off x="1086608" y="1937202"/>
+          <a:ext cx="0" cy="1424041"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5631,14 +5643,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>3198</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82915</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>3198</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44762</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5655,7 +5667,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2704834" y="2659860"/>
+          <a:off x="2704834" y="3020090"/>
           <a:ext cx="0" cy="1416575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5685,14 +5697,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>145799</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88876</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>25884</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>36688</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5709,8 +5721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5712881" y="1128782"/>
-          <a:ext cx="1852321" cy="405012"/>
+          <a:off x="5743035" y="1488197"/>
+          <a:ext cx="1861285" cy="405012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5805,14 +5817,14 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>33405</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>87574</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>79513</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35386</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76962</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5829,8 +5841,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7752017" y="1127480"/>
-          <a:ext cx="1839049" cy="405012"/>
+          <a:off x="7791950" y="1486895"/>
+          <a:ext cx="1847199" cy="405012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5903,14 +5915,14 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>28353</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138029</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>52753</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139278</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5927,8 +5939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7567671" y="1330335"/>
-          <a:ext cx="203694" cy="1249"/>
+          <a:off x="7606789" y="1689750"/>
+          <a:ext cx="204509" cy="1249"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5957,14 +5969,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>114744</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83192</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>90539</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>32093</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5981,8 +5993,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3825353" y="1103609"/>
-          <a:ext cx="1837725" cy="406101"/>
+          <a:off x="3716926" y="1482513"/>
+          <a:ext cx="1790740" cy="406101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6055,14 +6067,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>109569</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>32093</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>109569</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45354</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100784</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6080,7 +6092,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="4612296" y="1528384"/>
+          <a:off x="4612296" y="1888614"/>
           <a:ext cx="0" cy="636715"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6118,14 +6130,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>90539</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133843</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>145799</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138982</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42012</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6143,8 +6155,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5478327" y="1326149"/>
-          <a:ext cx="234554" cy="5139"/>
+          <a:off x="5507666" y="1685564"/>
+          <a:ext cx="235369" cy="5139"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6181,14 +6193,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119269</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77717</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6203,8 +6215,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="751087" y="1549335"/>
-          <a:ext cx="0" cy="1432404"/>
+          <a:off x="729401" y="1928239"/>
+          <a:ext cx="0" cy="1433005"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6241,14 +6253,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>91948</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>44828</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>112646</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71094</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6263,8 +6275,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="1127000" y="1830923"/>
-          <a:ext cx="1407854" cy="880532"/>
+          <a:off x="1075197" y="2223681"/>
+          <a:ext cx="1408455" cy="853425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6303,14 +6315,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83192</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>109569</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51063</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6328,7 +6340,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="1558481" y="142229"/>
+          <a:off x="1558481" y="502459"/>
           <a:ext cx="2073762" cy="4033869"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -6369,14 +6381,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88876</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>175896</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51063</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6394,7 +6406,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="2592014" y="-885620"/>
+          <a:off x="2592014" y="-525390"/>
           <a:ext cx="2068078" cy="6095251"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -6435,14 +6447,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>87574</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>56459</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51063</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6460,7 +6472,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="3612299" y="-1907207"/>
+          <a:off x="3612299" y="-1546977"/>
           <a:ext cx="2069380" cy="8137123"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -6501,14 +6513,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>48638</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20941</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6523,8 +6535,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="579120" y="891540"/>
-          <a:ext cx="9486900" cy="2304158"/>
+          <a:off x="570807" y="1254541"/>
+          <a:ext cx="9349048" cy="2299309"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6563,14 +6575,14 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>8708</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>8708</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>55430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6585,8 +6597,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="10075817" y="883920"/>
-          <a:ext cx="0" cy="931817"/>
+          <a:off x="9928563" y="1246921"/>
+          <a:ext cx="0" cy="928254"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6623,14 +6635,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67305</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6645,7 +6657,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="5647509" y="2721429"/>
+          <a:off x="5569527" y="3089575"/>
           <a:ext cx="0" cy="261257"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6683,14 +6695,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>148045</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>8708</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>8708</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>8708</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91847</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6705,8 +6717,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5643154" y="2730137"/>
-          <a:ext cx="4432663" cy="0"/>
+          <a:off x="5565172" y="3098283"/>
+          <a:ext cx="4363391" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6743,14 +6755,14 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>8709</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>165465</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>8709</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>84083</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>70241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6765,8 +6777,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="10130171" y="1799824"/>
-          <a:ext cx="0" cy="5478590"/>
+          <a:off x="9928564" y="2174386"/>
+          <a:ext cx="0" cy="5294182"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6803,14 +6815,14 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4354</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>65847</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106794</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65242</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6827,7 +6839,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7206343" y="2725783"/>
+          <a:off x="7103423" y="3093929"/>
           <a:ext cx="533" cy="254840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6865,14 +6877,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>99392</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>99392</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>39757</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25915</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6887,8 +6899,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="4923183" y="3770243"/>
-          <a:ext cx="0" cy="337931"/>
+          <a:off x="4782228" y="4117221"/>
+          <a:ext cx="0" cy="314439"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6925,14 +6937,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>99392</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106018</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106018</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6947,8 +6959,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4923183" y="3776870"/>
-          <a:ext cx="5294243" cy="0"/>
+          <a:off x="4782228" y="4123848"/>
+          <a:ext cx="5144253" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6985,14 +6997,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106018</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>46383</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32541</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7007,8 +7019,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6877878" y="3776870"/>
-          <a:ext cx="0" cy="337930"/>
+          <a:off x="6684517" y="4123848"/>
+          <a:ext cx="0" cy="314438"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7045,14 +7057,14 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>165154</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112644</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>98801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52043</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38201</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7069,8 +7081,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="8706180" y="3783496"/>
-          <a:ext cx="498" cy="336964"/>
+          <a:off x="8464027" y="4130474"/>
+          <a:ext cx="498" cy="313472"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7107,14 +7119,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>55295</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>67283</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>55295</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>52551</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38709</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7131,8 +7143,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4627295" y="5294603"/>
-          <a:ext cx="0" cy="244348"/>
+          <a:off x="4558022" y="5581404"/>
+          <a:ext cx="0" cy="234650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7169,14 +7181,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>26276</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47296</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>15766</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47296</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7191,8 +7203,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4624552" y="5554717"/>
-          <a:ext cx="5512676" cy="0"/>
+          <a:off x="4529003" y="5810799"/>
+          <a:ext cx="5406618" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7229,14 +7241,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44504</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>64902</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>42041</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7253,8 +7265,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6648451" y="5271824"/>
-          <a:ext cx="7751" cy="256617"/>
+          <a:off x="6554933" y="5558625"/>
+          <a:ext cx="7751" cy="246919"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7291,14 +7303,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>57807</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>42041</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62915</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99595</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85753</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7315,8 +7327,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4656083" y="5549462"/>
-          <a:ext cx="5108" cy="320312"/>
+          <a:off x="4560534" y="5805544"/>
+          <a:ext cx="5108" cy="306936"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7351,16 +7363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>183406</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>42041</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>3297</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99595</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>3822</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85753</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7377,8 +7389,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6626247" y="5549462"/>
-          <a:ext cx="525" cy="320312"/>
+          <a:off x="6501079" y="5805544"/>
+          <a:ext cx="525" cy="306936"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7415,14 +7427,14 @@
     <xdr:from>
       <xdr:col>47</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>52551</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>84083</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99595</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85753</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7439,8 +7451,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="8733834" y="5559972"/>
-          <a:ext cx="263" cy="309802"/>
+          <a:off x="8562802" y="5816054"/>
+          <a:ext cx="263" cy="296426"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7477,14 +7489,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>110491</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>39152</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>110491</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>64986</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7501,8 +7513,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2685525" y="6991745"/>
-          <a:ext cx="0" cy="281414"/>
+          <a:off x="2632018" y="7174255"/>
+          <a:ext cx="0" cy="289058"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7539,14 +7551,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>99849</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>64986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>5255</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>64986</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7561,8 +7573,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2674883" y="7273159"/>
-          <a:ext cx="7451834" cy="0"/>
+          <a:off x="2621376" y="7463313"/>
+          <a:ext cx="7303734" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7599,14 +7611,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>52044</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100457</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7623,8 +7635,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2144382" y="5001882"/>
-          <a:ext cx="1875816" cy="861060"/>
+          <a:off x="2132605" y="5298381"/>
+          <a:ext cx="1807929" cy="847206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7663,14 +7675,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>44606</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>96644</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>71625</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>31533</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17690</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7687,8 +7699,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3967578" y="5904969"/>
-          <a:ext cx="195085" cy="1119839"/>
+          <a:off x="3928380" y="6146591"/>
+          <a:ext cx="184271" cy="1107673"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7725,14 +7737,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>11726</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23448</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123093</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>41033</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27191</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7747,8 +7759,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="2195147" y="2716827"/>
-          <a:ext cx="2104293" cy="656490"/>
+          <a:off x="2178362" y="3066132"/>
+          <a:ext cx="2081913" cy="651695"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -7785,14 +7797,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>62056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>145915</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9727</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92866</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7807,8 +7819,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5275634" y="2577971"/>
-          <a:ext cx="327498" cy="155501"/>
+          <a:off x="5237018" y="2943801"/>
+          <a:ext cx="326024" cy="155501"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7847,14 +7859,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>175098</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147955</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>176633</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6485</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7871,7 +7883,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="6721813" y="2566900"/>
+          <a:off x="6672880" y="2932730"/>
           <a:ext cx="1535" cy="163330"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7909,14 +7921,14 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>51880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137688</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>52083</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6485</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7933,7 +7945,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="8777591" y="2556633"/>
+          <a:off x="8710971" y="2922463"/>
           <a:ext cx="203" cy="173597"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7971,14 +7983,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>105508</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35386</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>56460</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7995,8 +8007,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="5936769" y="-848737"/>
-          <a:ext cx="474568" cy="5232198"/>
+          <a:off x="5886147" y="-466659"/>
+          <a:ext cx="470837" cy="5187970"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8033,14 +8045,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>115614</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26275</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>67851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>115614</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>41031</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96461</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8055,8 +8067,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4294891" y="1520967"/>
-          <a:ext cx="0" cy="489541"/>
+          <a:off x="4258123" y="1882796"/>
+          <a:ext cx="0" cy="485810"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8093,14 +8105,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>176696</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>36688</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>177808</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8117,8 +8129,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6729896" y="1531380"/>
-          <a:ext cx="1112" cy="467405"/>
+          <a:off x="6674478" y="1893209"/>
+          <a:ext cx="1112" cy="463674"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8155,14 +8167,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>176696</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>177808</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98291</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8179,7 +8191,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6729896" y="1998785"/>
+          <a:off x="6674478" y="2356883"/>
           <a:ext cx="1112" cy="165953"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8217,14 +8229,14 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>46893</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>41031</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>52084</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>32594</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88024</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8241,7 +8253,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8780585" y="2010508"/>
+          <a:off x="8705984" y="2368606"/>
           <a:ext cx="5191" cy="143963"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8279,14 +8291,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>10510</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99705</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>65846</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>99852</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86009</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8303,8 +8315,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="5033147" y="1304448"/>
-          <a:ext cx="131526" cy="4291005"/>
+          <a:off x="4935686" y="1700031"/>
+          <a:ext cx="124838" cy="4211700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8341,14 +8353,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>44425</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8365,8 +8377,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="2665268" y="4617027"/>
-          <a:ext cx="0" cy="248780"/>
+          <a:off x="2616777" y="4942620"/>
+          <a:ext cx="0" cy="241853"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8403,14 +8415,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>63063</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114836</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>83821</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>99847</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8427,8 +8439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="6639391" y="4301101"/>
-          <a:ext cx="116391" cy="4072496"/>
+          <a:off x="6509446" y="4558137"/>
+          <a:ext cx="109702" cy="3997013"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8465,14 +8477,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>372</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114837</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>3717</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>100361</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8489,8 +8501,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6564723" y="6255442"/>
-          <a:ext cx="3345" cy="115621"/>
+          <a:off x="6498154" y="6501794"/>
+          <a:ext cx="3345" cy="110215"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8527,14 +8539,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>64004</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114837</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>100994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>66907</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>100361</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>86518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8551,8 +8563,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4617419" y="6255442"/>
-          <a:ext cx="2903" cy="115621"/>
+          <a:off x="4566731" y="6501794"/>
+          <a:ext cx="2903" cy="110215"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8589,14 +8601,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>110491</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104079</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>90236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>37171</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>23914</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8613,8 +8625,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2989069" y="6046115"/>
-          <a:ext cx="180031" cy="837363"/>
+          <a:off x="2961022" y="6286723"/>
+          <a:ext cx="169217" cy="827226"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8651,14 +8663,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>154302</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99704</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>156437</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94593</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8675,8 +8687,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5304371" y="3384187"/>
-          <a:ext cx="2135" cy="126268"/>
+          <a:off x="5197357" y="3743461"/>
+          <a:ext cx="2135" cy="119580"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8713,14 +8725,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4354</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>126275</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>8708</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>126275</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112432</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8735,188 +8747,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1488597" y="3942901"/>
-          <a:ext cx="7061137" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>17417</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>126275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>17417</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="244" name="直線コネクタ 243">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98B9B95-4860-49FF-8497-95989DF0575F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4223657" y="3940629"/>
-          <a:ext cx="0" cy="165462"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>174171</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>126275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>174171</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34835</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線コネクタ 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E442776D-5E01-4427-8C4E-49C5623F77BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6400800" y="3940629"/>
-          <a:ext cx="0" cy="169817"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>4354</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>126275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>4354</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52252</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直線コネクタ 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA33A40-6B5E-4E14-A46B-F2CB6FB4E0EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8425543" y="3940629"/>
-          <a:ext cx="0" cy="187234"/>
+          <a:off x="1445227" y="4268796"/>
+          <a:ext cx="2187435" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8953,14 +8785,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8709</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104503</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8709</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108077</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8975,8 +8807,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1471749" y="3396343"/>
-          <a:ext cx="0" cy="539931"/>
+          <a:off x="1449582" y="3748260"/>
+          <a:ext cx="0" cy="516181"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9011,16 +8843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45024</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45024</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31181</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9035,8 +8867,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2933700" y="4738251"/>
-          <a:ext cx="3678382" cy="0"/>
+          <a:off x="2881745" y="5060381"/>
+          <a:ext cx="3616037" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9071,16 +8903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45028</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>180109</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>45027</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31184</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9095,8 +8927,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2933700" y="4738255"/>
-          <a:ext cx="0" cy="128154"/>
+          <a:off x="2881745" y="5060385"/>
+          <a:ext cx="0" cy="124690"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9133,14 +8965,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62345</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45028</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>62345</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>45027</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31184</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9155,8 +8987,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4651663" y="4738255"/>
-          <a:ext cx="0" cy="128154"/>
+          <a:off x="4565072" y="5060385"/>
+          <a:ext cx="0" cy="124690"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9193,14 +9025,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>45028</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>20782</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6939</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9215,8 +9047,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6605154" y="4738255"/>
-          <a:ext cx="0" cy="103909"/>
+          <a:off x="6490854" y="5060385"/>
+          <a:ext cx="0" cy="100445"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9253,14 +9085,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>110849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9275,8 +9107,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="3745245" y="3941318"/>
-          <a:ext cx="0" cy="2797412"/>
+          <a:off x="3636818" y="4267213"/>
+          <a:ext cx="0" cy="2625134"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9313,14 +9145,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>86140</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>72298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>86140</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>72298</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9335,8 +9167,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3743739" y="5758070"/>
-          <a:ext cx="5353878" cy="0"/>
+          <a:off x="3635312" y="5974334"/>
+          <a:ext cx="5203888" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9373,14 +9205,14 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>92765</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78923</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9395,8 +9227,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9097617" y="5751443"/>
-          <a:ext cx="0" cy="145774"/>
+          <a:off x="8839200" y="5967707"/>
+          <a:ext cx="0" cy="137943"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9433,14 +9265,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>69669</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>69669</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>92765</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78923</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9455,8 +9287,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6844938" y="5722667"/>
-          <a:ext cx="0" cy="143881"/>
+          <a:off x="6747560" y="5967707"/>
+          <a:ext cx="0" cy="137943"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9493,14 +9325,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>169819</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>169819</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>92765</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>78923</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9515,8 +9347,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4193179" y="5722667"/>
-          <a:ext cx="0" cy="143881"/>
+          <a:off x="4132219" y="5967707"/>
+          <a:ext cx="0" cy="137943"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9553,14 +9385,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>117566</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>17417</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>34834</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>17417</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9575,8 +9407,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="3409406" y="6705600"/>
-          <a:ext cx="283028" cy="0"/>
+          <a:off x="3359530" y="6903138"/>
+          <a:ext cx="277486" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9613,14 +9445,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>5255</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>89338</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>78827</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63062</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9635,8 +9467,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1476703" y="3373821"/>
-          <a:ext cx="6148552" cy="236482"/>
+          <a:off x="1446128" y="3733095"/>
+          <a:ext cx="6031026" cy="223106"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9675,14 +9507,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>136635</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99848</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>136635</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57807</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43964</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9697,8 +9529,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5659821" y="3384331"/>
-          <a:ext cx="0" cy="220717"/>
+          <a:off x="5553762" y="3743605"/>
+          <a:ext cx="0" cy="207341"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9735,14 +9567,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>17584</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134816</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>158261</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134816</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23992</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9757,8 +9589,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1289538" y="1781908"/>
-          <a:ext cx="7965831" cy="0"/>
+          <a:off x="1278348" y="2143737"/>
+          <a:ext cx="7899222" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9795,14 +9627,14 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>164123</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35170</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>164123</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9817,7 +9649,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="9261231" y="1529862"/>
+          <a:off x="9183432" y="1891691"/>
           <a:ext cx="0" cy="263769"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9855,14 +9687,14 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>99646</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35170</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>99646</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9877,7 +9709,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7016261" y="1529862"/>
+          <a:off x="6957646" y="1891691"/>
           <a:ext cx="0" cy="263769"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9915,14 +9747,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>175845</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35170</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>175845</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9937,7 +9769,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="4900245" y="1529862"/>
+          <a:off x="4858681" y="1891691"/>
           <a:ext cx="0" cy="263769"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9975,14 +9807,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>11723</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111368</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>11723</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>117229</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9997,8 +9829,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1283677" y="1758460"/>
-          <a:ext cx="0" cy="1242646"/>
+          <a:off x="1272487" y="2120289"/>
+          <a:ext cx="0" cy="1238915"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10035,14 +9867,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>175846</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>41031</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96461</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10057,8 +9889,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4900246" y="1799492"/>
-          <a:ext cx="0" cy="363416"/>
+          <a:off x="4858682" y="2161321"/>
+          <a:ext cx="0" cy="359685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10095,14 +9927,14 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>93784</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>93784</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>41031</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96461</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10117,8 +9949,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7010399" y="1799492"/>
-          <a:ext cx="0" cy="363416"/>
+          <a:off x="6951784" y="2161321"/>
+          <a:ext cx="0" cy="359685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10155,14 +9987,14 @@
     <xdr:from>
       <xdr:col>50</xdr:col>
       <xdr:colOff>164122</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>164122</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>41031</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>96461</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10177,8 +10009,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9261230" y="1799492"/>
-          <a:ext cx="0" cy="363416"/>
+          <a:off x="9183431" y="2161321"/>
+          <a:ext cx="0" cy="359685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14044,25 +13876,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="66" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -14078,49 +13910,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="50" t="s">
+      <c r="AF3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="63" t="s">
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -14136,26 +13968,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -14761,44 +14593,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="70"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="57"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -14817,42 +14649,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="72"/>
-      <c r="AM17" s="72"/>
-      <c r="AN17" s="72"/>
-      <c r="AO17" s="72"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="73"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="59"/>
+      <c r="AQ17" s="59"/>
+      <c r="AR17" s="60"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -14871,42 +14703,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="73"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="60"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -14925,42 +14757,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="72"/>
-      <c r="AM19" s="72"/>
-      <c r="AN19" s="72"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="73"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="59"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="60"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -14979,42 +14811,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="73"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="60"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -15033,42 +14865,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="72"/>
-      <c r="AN21" s="72"/>
-      <c r="AO21" s="72"/>
-      <c r="AP21" s="72"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="73"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="60"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -15087,42 +14919,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="72"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="73"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="60"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -15141,42 +14973,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="72"/>
-      <c r="AM23" s="72"/>
-      <c r="AN23" s="72"/>
-      <c r="AO23" s="72"/>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="73"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="60"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -15195,42 +15027,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="72"/>
-      <c r="AL24" s="72"/>
-      <c r="AM24" s="72"/>
-      <c r="AN24" s="72"/>
-      <c r="AO24" s="72"/>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="72"/>
-      <c r="AR24" s="73"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="60"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -15249,42 +15081,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="72"/>
-      <c r="AL25" s="72"/>
-      <c r="AM25" s="72"/>
-      <c r="AN25" s="72"/>
-      <c r="AO25" s="72"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="73"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="60"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -15303,42 +15135,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="72"/>
-      <c r="AL26" s="72"/>
-      <c r="AM26" s="72"/>
-      <c r="AN26" s="72"/>
-      <c r="AO26" s="72"/>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="73"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="60"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -15357,42 +15189,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="72"/>
-      <c r="AN27" s="72"/>
-      <c r="AO27" s="72"/>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="73"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="60"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -15411,42 +15243,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="72"/>
-      <c r="AM28" s="72"/>
-      <c r="AN28" s="72"/>
-      <c r="AO28" s="72"/>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="73"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="60"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -15465,42 +15297,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="75"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="75"/>
-      <c r="W29" s="75"/>
-      <c r="X29" s="75"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="75"/>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="75"/>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="75"/>
-      <c r="AP29" s="75"/>
-      <c r="AQ29" s="75"/>
-      <c r="AR29" s="76"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="63"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -16272,30 +16104,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="50" t="s">
+      <c r="AF45" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="50"/>
-      <c r="AH45" s="50"/>
-      <c r="AI45" s="50"/>
-      <c r="AJ45" s="50"/>
-      <c r="AK45" s="50"/>
-      <c r="AL45" s="63" t="s">
+      <c r="AG45" s="53"/>
+      <c r="AH45" s="53"/>
+      <c r="AI45" s="53"/>
+      <c r="AJ45" s="53"/>
+      <c r="AK45" s="53"/>
+      <c r="AL45" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AM45" s="63"/>
-      <c r="AN45" s="63"/>
-      <c r="AO45" s="63"/>
-      <c r="AP45" s="63"/>
-      <c r="AQ45" s="63"/>
-      <c r="AR45" s="63"/>
-      <c r="AS45" s="63"/>
-      <c r="AT45" s="63"/>
-      <c r="AU45" s="63"/>
-      <c r="AV45" s="63"/>
-      <c r="AW45" s="63"/>
-      <c r="AX45" s="63"/>
-      <c r="AY45" s="63"/>
+      <c r="AM45" s="54"/>
+      <c r="AN45" s="54"/>
+      <c r="AO45" s="54"/>
+      <c r="AP45" s="54"/>
+      <c r="AQ45" s="54"/>
+      <c r="AR45" s="54"/>
+      <c r="AS45" s="54"/>
+      <c r="AT45" s="54"/>
+      <c r="AU45" s="54"/>
+      <c r="AV45" s="54"/>
+      <c r="AW45" s="54"/>
+      <c r="AX45" s="54"/>
+      <c r="AY45" s="54"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -16330,26 +16162,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
-      <c r="AI46" s="50"/>
-      <c r="AJ46" s="50"/>
-      <c r="AK46" s="50"/>
-      <c r="AL46" s="63"/>
-      <c r="AM46" s="63"/>
-      <c r="AN46" s="63"/>
-      <c r="AO46" s="63"/>
-      <c r="AP46" s="63"/>
-      <c r="AQ46" s="63"/>
-      <c r="AR46" s="63"/>
-      <c r="AS46" s="63"/>
-      <c r="AT46" s="63"/>
-      <c r="AU46" s="63"/>
-      <c r="AV46" s="63"/>
-      <c r="AW46" s="63"/>
-      <c r="AX46" s="63"/>
-      <c r="AY46" s="63"/>
+      <c r="AF46" s="53"/>
+      <c r="AG46" s="53"/>
+      <c r="AH46" s="53"/>
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="53"/>
+      <c r="AK46" s="53"/>
+      <c r="AL46" s="54"/>
+      <c r="AM46" s="54"/>
+      <c r="AN46" s="54"/>
+      <c r="AO46" s="54"/>
+      <c r="AP46" s="54"/>
+      <c r="AQ46" s="54"/>
+      <c r="AR46" s="54"/>
+      <c r="AS46" s="54"/>
+      <c r="AT46" s="54"/>
+      <c r="AU46" s="54"/>
+      <c r="AV46" s="54"/>
+      <c r="AW46" s="54"/>
+      <c r="AX46" s="54"/>
+      <c r="AY46" s="54"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -16384,30 +16216,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="50" t="s">
+      <c r="AF47" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="50"/>
-      <c r="AH47" s="50"/>
-      <c r="AI47" s="50"/>
-      <c r="AJ47" s="50"/>
-      <c r="AK47" s="50"/>
-      <c r="AL47" s="49">
+      <c r="AG47" s="53"/>
+      <c r="AH47" s="53"/>
+      <c r="AI47" s="53"/>
+      <c r="AJ47" s="53"/>
+      <c r="AK47" s="53"/>
+      <c r="AL47" s="64">
         <v>45539</v>
       </c>
-      <c r="AM47" s="49"/>
-      <c r="AN47" s="49"/>
-      <c r="AO47" s="49"/>
-      <c r="AP47" s="49"/>
-      <c r="AQ47" s="49"/>
-      <c r="AR47" s="49"/>
-      <c r="AS47" s="49"/>
-      <c r="AT47" s="49"/>
-      <c r="AU47" s="49"/>
-      <c r="AV47" s="49"/>
-      <c r="AW47" s="49"/>
-      <c r="AX47" s="49"/>
-      <c r="AY47" s="49"/>
+      <c r="AM47" s="64"/>
+      <c r="AN47" s="64"/>
+      <c r="AO47" s="64"/>
+      <c r="AP47" s="64"/>
+      <c r="AQ47" s="64"/>
+      <c r="AR47" s="64"/>
+      <c r="AS47" s="64"/>
+      <c r="AT47" s="64"/>
+      <c r="AU47" s="64"/>
+      <c r="AV47" s="64"/>
+      <c r="AW47" s="64"/>
+      <c r="AX47" s="64"/>
+      <c r="AY47" s="64"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -16442,26 +16274,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="50"/>
-      <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="50"/>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="49"/>
-      <c r="AM48" s="49"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="49"/>
-      <c r="AQ48" s="49"/>
-      <c r="AR48" s="49"/>
-      <c r="AS48" s="49"/>
-      <c r="AT48" s="49"/>
-      <c r="AU48" s="49"/>
-      <c r="AV48" s="49"/>
-      <c r="AW48" s="49"/>
-      <c r="AX48" s="49"/>
-      <c r="AY48" s="49"/>
+      <c r="AF48" s="53"/>
+      <c r="AG48" s="53"/>
+      <c r="AH48" s="53"/>
+      <c r="AI48" s="53"/>
+      <c r="AJ48" s="53"/>
+      <c r="AK48" s="53"/>
+      <c r="AL48" s="64"/>
+      <c r="AM48" s="64"/>
+      <c r="AN48" s="64"/>
+      <c r="AO48" s="64"/>
+      <c r="AP48" s="64"/>
+      <c r="AQ48" s="64"/>
+      <c r="AR48" s="64"/>
+      <c r="AS48" s="64"/>
+      <c r="AT48" s="64"/>
+      <c r="AU48" s="64"/>
+      <c r="AV48" s="64"/>
+      <c r="AW48" s="64"/>
+      <c r="AX48" s="64"/>
+      <c r="AY48" s="64"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -16496,30 +16328,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="51" t="s">
+      <c r="AF49" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="53"/>
-      <c r="AL49" s="57" t="s">
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="58"/>
-      <c r="AO49" s="58"/>
-      <c r="AP49" s="58"/>
-      <c r="AQ49" s="58"/>
-      <c r="AR49" s="58"/>
-      <c r="AS49" s="58"/>
-      <c r="AT49" s="58"/>
-      <c r="AU49" s="58"/>
-      <c r="AV49" s="58"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="58"/>
-      <c r="AY49" s="59"/>
+      <c r="AM49" s="72"/>
+      <c r="AN49" s="72"/>
+      <c r="AO49" s="72"/>
+      <c r="AP49" s="72"/>
+      <c r="AQ49" s="72"/>
+      <c r="AR49" s="72"/>
+      <c r="AS49" s="72"/>
+      <c r="AT49" s="72"/>
+      <c r="AU49" s="72"/>
+      <c r="AV49" s="72"/>
+      <c r="AW49" s="72"/>
+      <c r="AX49" s="72"/>
+      <c r="AY49" s="73"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -16554,26 +16386,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="54"/>
-      <c r="AG50" s="55"/>
-      <c r="AH50" s="55"/>
-      <c r="AI50" s="55"/>
-      <c r="AJ50" s="55"/>
-      <c r="AK50" s="56"/>
-      <c r="AL50" s="60"/>
-      <c r="AM50" s="61"/>
-      <c r="AN50" s="61"/>
-      <c r="AO50" s="61"/>
-      <c r="AP50" s="61"/>
-      <c r="AQ50" s="61"/>
-      <c r="AR50" s="61"/>
-      <c r="AS50" s="61"/>
-      <c r="AT50" s="61"/>
-      <c r="AU50" s="61"/>
-      <c r="AV50" s="61"/>
-      <c r="AW50" s="61"/>
-      <c r="AX50" s="61"/>
-      <c r="AY50" s="62"/>
+      <c r="AF50" s="68"/>
+      <c r="AG50" s="69"/>
+      <c r="AH50" s="69"/>
+      <c r="AI50" s="69"/>
+      <c r="AJ50" s="69"/>
+      <c r="AK50" s="70"/>
+      <c r="AL50" s="74"/>
+      <c r="AM50" s="75"/>
+      <c r="AN50" s="75"/>
+      <c r="AO50" s="75"/>
+      <c r="AP50" s="75"/>
+      <c r="AQ50" s="75"/>
+      <c r="AR50" s="75"/>
+      <c r="AS50" s="75"/>
+      <c r="AT50" s="75"/>
+      <c r="AU50" s="75"/>
+      <c r="AV50" s="75"/>
+      <c r="AW50" s="75"/>
+      <c r="AX50" s="75"/>
+      <c r="AY50" s="76"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -16686,17 +16518,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16726,244 +16558,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="81"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="92"/>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="92"/>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="93"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="84"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="79" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="79" t="s">
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="79" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="80"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="81"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="93"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="82">
+      <c r="A5" s="94">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83">
+      <c r="B5" s="94"/>
+      <c r="C5" s="95">
         <v>42887</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="82" t="s">
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82" t="s">
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82" t="s">
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="82"/>
-      <c r="AX5" s="82"/>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="82"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94"/>
+      <c r="AZ5" s="94"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="77">
@@ -17031,134 +16863,134 @@
       <c r="AZ6" s="77"/>
     </row>
     <row r="7" spans="1:52" s="39" customFormat="1" ht="12">
-      <c r="A7" s="84">
+      <c r="A7" s="87">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="87">
+      <c r="B7" s="87"/>
+      <c r="C7" s="90">
         <v>45546</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="84" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84" t="s">
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="87"/>
+      <c r="AX7" s="87"/>
+      <c r="AY7" s="87"/>
+      <c r="AZ7" s="87"/>
     </row>
     <row r="8" spans="1:52" s="47" customFormat="1" ht="12">
-      <c r="A8" s="85">
+      <c r="A8" s="88">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89">
         <v>45547</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="85" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85" t="s">
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85" t="s">
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
     </row>
     <row r="9" spans="1:52" ht="12">
       <c r="A9" s="77">
@@ -19270,64 +19102,256 @@
       <c r="AZ45" s="77"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="94">
+      <c r="A46" s="85">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="94"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="94"/>
-      <c r="S46" s="94"/>
-      <c r="T46" s="94"/>
-      <c r="U46" s="94"/>
-      <c r="V46" s="94"/>
-      <c r="W46" s="94"/>
-      <c r="X46" s="94"/>
-      <c r="Y46" s="94"/>
-      <c r="Z46" s="94"/>
-      <c r="AA46" s="94"/>
-      <c r="AB46" s="94"/>
-      <c r="AC46" s="94"/>
-      <c r="AD46" s="94"/>
-      <c r="AE46" s="94"/>
-      <c r="AF46" s="94"/>
-      <c r="AG46" s="94"/>
-      <c r="AH46" s="94"/>
-      <c r="AI46" s="94"/>
-      <c r="AJ46" s="94"/>
-      <c r="AK46" s="94"/>
-      <c r="AL46" s="94"/>
-      <c r="AM46" s="94"/>
-      <c r="AN46" s="94"/>
-      <c r="AO46" s="94"/>
-      <c r="AP46" s="94"/>
-      <c r="AQ46" s="94"/>
-      <c r="AR46" s="94"/>
-      <c r="AS46" s="94"/>
-      <c r="AT46" s="94"/>
-      <c r="AU46" s="94"/>
-      <c r="AV46" s="94"/>
-      <c r="AW46" s="94"/>
-      <c r="AX46" s="94"/>
-      <c r="AY46" s="94"/>
-      <c r="AZ46" s="94"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="85"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="85"/>
+      <c r="AG46" s="85"/>
+      <c r="AH46" s="85"/>
+      <c r="AI46" s="85"/>
+      <c r="AJ46" s="85"/>
+      <c r="AK46" s="85"/>
+      <c r="AL46" s="85"/>
+      <c r="AM46" s="85"/>
+      <c r="AN46" s="85"/>
+      <c r="AO46" s="85"/>
+      <c r="AP46" s="85"/>
+      <c r="AQ46" s="85"/>
+      <c r="AR46" s="85"/>
+      <c r="AS46" s="85"/>
+      <c r="AT46" s="85"/>
+      <c r="AU46" s="85"/>
+      <c r="AV46" s="85"/>
+      <c r="AW46" s="85"/>
+      <c r="AX46" s="85"/>
+      <c r="AY46" s="85"/>
+      <c r="AZ46" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="K44:T44"/>
     <mergeCell ref="C40:F40"/>
@@ -19352,198 +19376,6 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19558,8 +19390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -19724,16 +19556,16 @@
       <c r="I5" s="97"/>
       <c r="J5" s="97"/>
     </row>
-    <row r="6" spans="1:56" ht="12">
-      <c r="A6" s="23"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+    <row r="6" spans="1:56" ht="13.2" customHeight="1">
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -19783,15 +19615,15 @@
       <c r="BD6" s="48"/>
     </row>
     <row r="7" spans="1:56" ht="12">
-      <c r="A7" s="26"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
@@ -19841,15 +19673,15 @@
       <c r="BD7" s="43"/>
     </row>
     <row r="8" spans="1:56" ht="12">
-      <c r="A8" s="26"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -23024,7 +22856,8 @@
       <c r="BC62" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A6:I8"/>
     <mergeCell ref="A4:J5"/>
     <mergeCell ref="A1:S2"/>
     <mergeCell ref="AU1:AV2"/>
@@ -25597,11 +25430,6 @@
     <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -25609,6 +25437,11 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
